--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.150000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.150000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.99602</v>
       </c>
       <c r="C2" t="n">
-        <v>7.206149579411442e-130</v>
+        <v>2.806496627944224e-139</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.00097</v>
       </c>
       <c r="C3" t="n">
-        <v>2.541167854307891e-130</v>
+        <v>5.344621795551124e-139</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>1.029715950970589e-130</v>
+        <v>6.923619049164993e-139</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.00697</v>
       </c>
       <c r="C5" t="n">
-        <v>7.603550098334006e-131</v>
+        <v>5.339348810942414e-139</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.00909</v>
       </c>
       <c r="C6" t="n">
-        <v>5.422290713130637e-131</v>
+        <v>4.727420804643788e-139</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.01003</v>
       </c>
       <c r="C7" t="n">
-        <v>5.962847387917032e-131</v>
+        <v>4.656596510878702e-139</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>5.257259048435434e-131</v>
+        <v>2.887917505756593e-139</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.01911</v>
       </c>
       <c r="C9" t="n">
-        <v>1.034115794190574e-130</v>
+        <v>2.341098201147096e-139</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.01992</v>
       </c>
       <c r="C10" t="n">
-        <v>1.193126631907791e-130</v>
+        <v>1.636454984465153e-139</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.02504</v>
       </c>
       <c r="C11" t="n">
-        <v>6.86514647201555e-131</v>
+        <v>1.401729099132946e-139</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.02998</v>
       </c>
       <c r="C12" t="n">
-        <v>3.260159657756719e-131</v>
+        <v>7.516985540677029e-140</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.03514</v>
       </c>
       <c r="C13" t="n">
-        <v>9.875187601333994e-132</v>
+        <v>4.5504701135952e-140</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.26996</v>
       </c>
       <c r="C14" t="n">
-        <v>6.601579834890392e-132</v>
+        <v>1.242837475279865e-147</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.29005</v>
       </c>
       <c r="C15" t="n">
-        <v>7.391620525330962e-132</v>
+        <v>2.104816944303036e-148</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291119999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>2.832940623892848e-132</v>
+        <v>1.98485996839739e-148</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.29319</v>
       </c>
       <c r="C17" t="n">
-        <v>1.707048896890338e-132</v>
+        <v>1.471592021314066e-148</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.2942</v>
       </c>
       <c r="C18" t="n">
-        <v>7.1072897638096e-133</v>
+        <v>1.396707875035482e-148</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.29515</v>
       </c>
       <c r="C19" t="n">
-        <v>1.898235342786062e-133</v>
+        <v>1.672043370710655e-148</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.29615</v>
       </c>
       <c r="C20" t="n">
-        <v>1.279016407657314e-133</v>
+        <v>1.273739764860335e-148</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>1.066426012050296e-133</v>
+        <v>1.366633032689248e-148</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298080000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>9.180410182767691e-134</v>
+        <v>2.435018753797771e-148</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299090000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>8.326794397950607e-134</v>
+        <v>2.526134746010783e-148</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.30105</v>
       </c>
       <c r="C24" t="n">
-        <v>6.11377204592473e-134</v>
+        <v>2.88980083040916e-148</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.3031</v>
       </c>
       <c r="C25" t="n">
-        <v>8.993990181554424e-134</v>
+        <v>2.707964656446864e-148</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.30523</v>
       </c>
       <c r="C26" t="n">
-        <v>9.732848790172101e-134</v>
+        <v>2.021607809742832e-148</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>1.257622060093624e-133</v>
+        <v>2.110374773385909e-148</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.3093</v>
       </c>
       <c r="C28" t="n">
-        <v>1.601403090416202e-133</v>
+        <v>1.648847615350405e-148</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.30996</v>
       </c>
       <c r="C29" t="n">
-        <v>8.19140215754701e-134</v>
+        <v>1.633185306939657e-148</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.31117</v>
       </c>
       <c r="C30" t="n">
-        <v>2.322189639643283e-134</v>
+        <v>1.461635549246869e-148</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.31311</v>
       </c>
       <c r="C31" t="n">
-        <v>6.251889122741929e-135</v>
+        <v>1.258665531660547e-148</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.31513</v>
       </c>
       <c r="C32" t="n">
-        <v>1.603475493573261e-135</v>
+        <v>1.021184367786324e-148</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.3172</v>
       </c>
       <c r="C33" t="n">
-        <v>8.735925523069128e-136</v>
+        <v>8.080232852816216e-149</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.31917</v>
       </c>
       <c r="C34" t="n">
-        <v>3.128142926734046e-136</v>
+        <v>8.299314407073371e-149</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>1.464332203426416e-136</v>
+        <v>6.244262356095726e-149</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>6.665847921711776e-137</v>
+        <v>5.270804234945565e-149</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.32521</v>
       </c>
       <c r="C37" t="n">
-        <v>5.524600863009133e-137</v>
+        <v>2.896532601677038e-149</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.32711</v>
       </c>
       <c r="C38" t="n">
-        <v>6.124682214465252e-137</v>
+        <v>2.558691600153233e-149</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.32908</v>
       </c>
       <c r="C39" t="n">
-        <v>1.091924812069328e-137</v>
+        <v>1.813737454730888e-149</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.33012</v>
       </c>
       <c r="C40" t="n">
-        <v>2.518701047908655e-138</v>
+        <v>2.048371820540247e-149</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.33119</v>
       </c>
       <c r="C41" t="n">
-        <v>1.139781907208943e-138</v>
+        <v>2.84313952810709e-149</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.33324</v>
       </c>
       <c r="C42" t="n">
-        <v>2.767936183407236e-139</v>
+        <v>2.484571351010482e-149</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.33515</v>
       </c>
       <c r="C43" t="n">
-        <v>9.483276655033012e-140</v>
+        <v>2.0041334459707e-149</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.34004</v>
       </c>
       <c r="C44" t="n">
-        <v>4.572651467820889e-140</v>
+        <v>1.242300258077409e-149</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.34488</v>
       </c>
       <c r="C45" t="n">
-        <v>7.528217230852422e-140</v>
+        <v>9.031738515152742e-150</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.34998</v>
       </c>
       <c r="C46" t="n">
-        <v>6.628104187650889e-140</v>
+        <v>5.916659112117602e-150</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.37005</v>
       </c>
       <c r="C47" t="n">
-        <v>3.702226239627321e-140</v>
+        <v>8.46125708559809e-151</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.39015</v>
       </c>
       <c r="C48" t="n">
-        <v>2.763315197240156e-140</v>
+        <v>2.388845884117342e-151</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.41003</v>
       </c>
       <c r="C49" t="n">
-        <v>1.752466668163358e-140</v>
+        <v>7.768773161045209e-152</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.42024</v>
       </c>
       <c r="C50" t="n">
-        <v>7.968746070554432e-141</v>
+        <v>5.123824216562484e-152</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.43018</v>
       </c>
       <c r="C51" t="n">
-        <v>3.136102140682934e-141</v>
+        <v>3.273412368565173e-152</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.44004</v>
       </c>
       <c r="C52" t="n">
-        <v>1.469083086659001e-141</v>
+        <v>3.227721915025529e-152</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.44994</v>
       </c>
       <c r="C53" t="n">
-        <v>1.200502394852745e-141</v>
+        <v>2.550551500167358e-152</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.45499</v>
       </c>
       <c r="C54" t="n">
-        <v>9.865198029192189e-142</v>
+        <v>4.744381033169645e-152</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.46012</v>
       </c>
       <c r="C55" t="n">
-        <v>6.989292865730293e-142</v>
+        <v>5.171877312626559e-152</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469959999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>3.681631898691044e-142</v>
+        <v>2.668898601951361e-152</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477980000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>1.137378074026056e-142</v>
+        <v>1.159809058529639e-152</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.48613</v>
       </c>
       <c r="C58" t="n">
-        <v>5.205547371733167e-143</v>
+        <v>3.21021202105048e-153</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.48819</v>
       </c>
       <c r="C59" t="n">
-        <v>1.794187808790492e-143</v>
+        <v>2.09767555306676e-153</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490069999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>1.416083581558319e-143</v>
+        <v>2.300366542079913e-153</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.49222</v>
       </c>
       <c r="C61" t="n">
-        <v>9.519507347752502e-144</v>
+        <v>8.609233627231271e-154</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.49499</v>
       </c>
       <c r="C62" t="n">
-        <v>6.621682996005705e-144</v>
+        <v>5.031107963216675e-154</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499969999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>5.478507976146159e-144</v>
+        <v>1.982411027156013e-154</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.51021</v>
       </c>
       <c r="C64" t="n">
-        <v>4.536059012252654e-144</v>
+        <v>4.727574736678299e-155</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.51218</v>
       </c>
       <c r="C65" t="n">
-        <v>3.616160081006022e-144</v>
+        <v>3.116728502647319e-155</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.51508</v>
       </c>
       <c r="C66" t="n">
-        <v>2.320662779061333e-144</v>
+        <v>2.516631422354228e-155</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.52007</v>
       </c>
       <c r="C67" t="n">
-        <v>1.859007780201765e-144</v>
+        <v>2.050099454219178e-155</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.52524</v>
       </c>
       <c r="C68" t="n">
-        <v>1.35875773159541e-144</v>
+        <v>1.756102159960067e-155</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529409999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>9.907709196398496e-145</v>
+        <v>1.231246721652274e-155</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.53506</v>
       </c>
       <c r="C70" t="n">
-        <v>8.133372529393889e-145</v>
+        <v>1.70153557483191e-155</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.54024</v>
       </c>
       <c r="C71" t="n">
-        <v>6.507545788773216e-145</v>
+        <v>1.738760013672857e-155</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.5498</v>
       </c>
       <c r="C72" t="n">
-        <v>5.651909376799697e-145</v>
+        <v>2.021230095085323e-155</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.56018</v>
       </c>
       <c r="C73" t="n">
-        <v>4.472352145898681e-145</v>
+        <v>2.294522191008807e-155</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570130000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>3.860314191696548e-145</v>
+        <v>1.051336906994293e-155</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580030000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>1.631725229622865e-145</v>
+        <v>2.671244547743954e-156</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.59008</v>
       </c>
       <c r="C76" t="n">
-        <v>1.062215877865167e-145</v>
+        <v>6.434855714521317e-157</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.60027</v>
       </c>
       <c r="C77" t="n">
-        <v>6.590718884765194e-146</v>
+        <v>1.474445686010346e-157</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.60999</v>
       </c>
       <c r="C78" t="n">
-        <v>2.652995463958211e-146</v>
+        <v>7.213940327853626e-158</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.62023</v>
       </c>
       <c r="C79" t="n">
-        <v>1.70233500878577e-146</v>
+        <v>2.306475660306438e-158</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.62994</v>
       </c>
       <c r="C80" t="n">
-        <v>1.062314873104698e-146</v>
+        <v>9.697217131035976e-159</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.63517</v>
       </c>
       <c r="C81" t="n">
-        <v>8.352492984837354e-147</v>
+        <v>4.166138565323598e-159</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>8.307464745799241e-147</v>
+        <v>3.274644344521192e-159</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.64996</v>
       </c>
       <c r="C83" t="n">
-        <v>7.223353457885713e-147</v>
+        <v>3.250114138999238e-159</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.67012</v>
       </c>
       <c r="C84" t="n">
-        <v>5.047343494967566e-147</v>
+        <v>4.635991809160804e-160</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.68015</v>
       </c>
       <c r="C85" t="n">
-        <v>4.162046478966041e-147</v>
+        <v>9.570491130351998e-161</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.68993</v>
       </c>
       <c r="C86" t="n">
-        <v>3.622732410813573e-147</v>
+        <v>3.88676463402292e-161</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>3.392008138480309e-147</v>
+        <v>7.557771648687542e-162</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.73</v>
       </c>
       <c r="C88" t="n">
-        <v>3.009583387545329e-147</v>
+        <v>2.075849447101357e-162</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.75</v>
       </c>
       <c r="C89" t="n">
-        <v>2.628718607498367e-147</v>
+        <v>8.022489836130919e-163</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.75518</v>
       </c>
       <c r="C90" t="n">
-        <v>2.136267625431511e-147</v>
+        <v>1.247223431194684e-162</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.75888</v>
       </c>
       <c r="C91" t="n">
-        <v>1.740165277084021e-147</v>
+        <v>1.054055841092412e-162</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.77004</v>
       </c>
       <c r="C92" t="n">
-        <v>1.174432184699785e-147</v>
+        <v>5.203738691218081e-163</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.77502</v>
       </c>
       <c r="C93" t="n">
-        <v>7.305252027408967e-148</v>
+        <v>3.675826108391669e-163</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780180000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>2.356489870886982e-148</v>
+        <v>2.201818107341522e-163</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.79012</v>
       </c>
       <c r="C95" t="n">
-        <v>1.425805694821387e-148</v>
+        <v>8.96936651647699e-164</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799919999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>8.424342317288268e-149</v>
+        <v>3.167194736631439e-164</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.81003</v>
       </c>
       <c r="C97" t="n">
-        <v>3.426855235413005e-149</v>
+        <v>1.326643453913863e-164</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>2.197750225492561e-149</v>
+        <v>1.058855333094475e-164</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>1.690029661170902e-149</v>
+        <v>8.406910454012265e-165</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.82006</v>
       </c>
       <c r="C100" t="n">
-        <v>1.411294336516623e-149</v>
+        <v>5.648703447926317e-165</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.82989</v>
       </c>
       <c r="C101" t="n">
-        <v>1.167111090340672e-149</v>
+        <v>2.668852309830704e-165</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>1.079352157057836e-149</v>
+        <v>6.598116772476302e-166</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.86629</v>
       </c>
       <c r="C103" t="n">
-        <v>1.053570253963656e-149</v>
+        <v>2.522639607783071e-166</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.88989</v>
       </c>
       <c r="C104" t="n">
-        <v>1.030538041241216e-149</v>
+        <v>6.696733361784911e-167</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.89991</v>
       </c>
       <c r="C105" t="n">
-        <v>8.796449780455682e-150</v>
+        <v>4.730855886406301e-167</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>7.578264742023544e-150</v>
+        <v>2.840272873644321e-167</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.91996</v>
       </c>
       <c r="C107" t="n">
-        <v>6.632079152816928e-150</v>
+        <v>1.772077122189189e-167</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.92615</v>
       </c>
       <c r="C108" t="n">
-        <v>5.257332258942944e-150</v>
+        <v>1.369098544977513e-167</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930190000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>4.920954010364947e-150</v>
+        <v>1.084025859447686e-167</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.93692</v>
       </c>
       <c r="C110" t="n">
-        <v>4.724008815646291e-150</v>
+        <v>8.021806282312237e-168</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.94675</v>
       </c>
       <c r="C111" t="n">
-        <v>3.840136806499329e-150</v>
+        <v>4.617481877072921e-168</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.95027</v>
       </c>
       <c r="C112" t="n">
-        <v>2.442658455434719e-150</v>
+        <v>3.55763518308672e-168</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.95676</v>
       </c>
       <c r="C113" t="n">
-        <v>1.528592640914809e-150</v>
+        <v>2.420131500581773e-168</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>1.06193712718225e-150</v>
+        <v>1.667698614584828e-168</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.96475</v>
       </c>
       <c r="C115" t="n">
-        <v>9.429852217914461e-151</v>
+        <v>1.326102537570637e-168</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.96787</v>
       </c>
       <c r="C116" t="n">
-        <v>9.050399087246166e-151</v>
+        <v>1.025020715370225e-168</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.97004</v>
       </c>
       <c r="C117" t="n">
-        <v>1.123156292511344e-150</v>
+        <v>8.691288072164088e-169</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>1.149722211368399e-150</v>
+        <v>6.670580809513342e-169</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.97463</v>
       </c>
       <c r="C119" t="n">
-        <v>9.969980237681347e-151</v>
+        <v>5.642317159670488e-169</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.98471</v>
       </c>
       <c r="C120" t="n">
-        <v>8.223325254869853e-151</v>
+        <v>2.133287093357713e-169</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990069999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>7.330531056654608e-151</v>
+        <v>1.308763704758015e-169</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>6.924091531827854e-151</v>
+        <v>7.717543381486052e-170</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.00464</v>
       </c>
       <c r="C123" t="n">
-        <v>4.487619780843906e-151</v>
+        <v>2.782138619678716e-170</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>3.530586473532717e-151</v>
+        <v>1.682602432725642e-170</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.01484</v>
       </c>
       <c r="C125" t="n">
-        <v>1.095250572356859e-151</v>
+        <v>9.951450274522501e-171</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.01774</v>
       </c>
       <c r="C126" t="n">
-        <v>1.930955936605363e-152</v>
+        <v>7.577313625765669e-171</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.01786</v>
       </c>
       <c r="C127" t="n">
-        <v>4.635312519584997e-153</v>
+        <v>7.526465450202458e-171</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019819999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>1.430159098932739e-153</v>
+        <v>6.40389185180094e-171</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.0248</v>
       </c>
       <c r="C129" t="n">
-        <v>1.07451576789202e-153</v>
+        <v>4.23486910188599e-171</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027830000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>9.486952813963457e-154</v>
+        <v>3.376956429301064e-171</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.0301</v>
       </c>
       <c r="C131" t="n">
-        <v>9.037427523198315e-154</v>
+        <v>2.866472973827127e-171</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032780000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>6.298275653467362e-154</v>
+        <v>2.605502946641623e-171</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.0359</v>
       </c>
       <c r="C133" t="n">
-        <v>4.68479513992621e-154</v>
+        <v>2.233315254431438e-171</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.03871</v>
       </c>
       <c r="C134" t="n">
-        <v>3.255112805715186e-154</v>
+        <v>1.890976851893514e-171</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041980000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>2.116402203188748e-154</v>
+        <v>1.482129043649203e-171</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.04479</v>
       </c>
       <c r="C136" t="n">
-        <v>2.08756981136638e-154</v>
+        <v>1.170359593021203e-171</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.04997</v>
       </c>
       <c r="C137" t="n">
-        <v>1.363632629993931e-154</v>
+        <v>7.458780187263074e-172</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.05484</v>
       </c>
       <c r="C138" t="n">
-        <v>8.274030156030915e-155</v>
+        <v>4.396181402655117e-172</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.06488</v>
       </c>
       <c r="C139" t="n">
-        <v>5.373159268904054e-155</v>
+        <v>1.269011644883399e-172</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.06991</v>
       </c>
       <c r="C140" t="n">
-        <v>4.399661374247236e-155</v>
+        <v>7.262600265932242e-173</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.07448</v>
       </c>
       <c r="C141" t="n">
-        <v>3.190884904907637e-155</v>
+        <v>4.079526742703619e-173</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.08419</v>
       </c>
       <c r="C142" t="n">
-        <v>2.758486134806077e-155</v>
+        <v>1.490440886080599e-173</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.08999</v>
       </c>
       <c r="C143" t="n">
-        <v>2.172182456895679e-155</v>
+        <v>8.964568436789901e-174</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093719999999999</v>
       </c>
       <c r="C144" t="n">
-        <v>1.659890155575122e-155</v>
+        <v>6.614901931784898e-174</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>1.409726162973216e-155</v>
+        <v>5.341214700320395e-174</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.09889</v>
       </c>
       <c r="C146" t="n">
-        <v>1.178714880306285e-155</v>
+        <v>4.31420095651241e-174</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.09999</v>
       </c>
       <c r="C147" t="n">
-        <v>9.430064467176906e-156</v>
+        <v>3.941540914258888e-174</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.10043</v>
       </c>
       <c r="C148" t="n">
-        <v>7.93483805762036e-156</v>
+        <v>3.8287080889202e-174</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100709999999999</v>
       </c>
       <c r="C149" t="n">
-        <v>6.364982957911202e-156</v>
+        <v>3.733425025919635e-174</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.10288</v>
       </c>
       <c r="C150" t="n">
-        <v>6.057310234567661e-156</v>
+        <v>3.111174562279293e-174</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.10486</v>
       </c>
       <c r="C151" t="n">
-        <v>4.528266250604716e-156</v>
+        <v>2.622244512832875e-174</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.1069</v>
       </c>
       <c r="C152" t="n">
-        <v>2.877042223700317e-156</v>
+        <v>2.243630239035438e-174</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.10878</v>
       </c>
       <c r="C153" t="n">
-        <v>2.791222576438586e-156</v>
+        <v>1.74194304553347e-174</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110040000000001</v>
       </c>
       <c r="C154" t="n">
-        <v>1.902365955222735e-156</v>
+        <v>1.607917500561436e-174</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>1.672266970807259e-156</v>
+        <v>1.531488480647722e-174</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.11384</v>
       </c>
       <c r="C156" t="n">
-        <v>1.595695864381072e-156</v>
+        <v>1.203103096441789e-174</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.1188</v>
       </c>
       <c r="C157" t="n">
-        <v>1.617877268047355e-156</v>
+        <v>7.244142711655851e-175</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123769999999999</v>
       </c>
       <c r="C158" t="n">
-        <v>1.277372706414313e-156</v>
+        <v>4.290778256205532e-175</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.12852</v>
       </c>
       <c r="C159" t="n">
-        <v>1.01906391803714e-156</v>
+        <v>2.828265830585758e-175</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.12994</v>
       </c>
       <c r="C160" t="n">
-        <v>8.139476571681111e-157</v>
+        <v>2.472313083771744e-175</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.13381</v>
       </c>
       <c r="C161" t="n">
-        <v>6.669267580733572e-157</v>
+        <v>2.273378067403847e-175</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.13888</v>
       </c>
       <c r="C162" t="n">
-        <v>5.563582283691817e-157</v>
+        <v>2.667372709906368e-175</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.14165</v>
       </c>
       <c r="C163" t="n">
-        <v>4.531460076278625e-157</v>
+        <v>2.648055511586817e-175</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144740000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>3.6757513126831e-157</v>
+        <v>2.219124017542432e-175</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.14799</v>
       </c>
       <c r="C165" t="n">
-        <v>3.34986323464091e-157</v>
+        <v>1.765708820256471e-175</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.15001</v>
       </c>
       <c r="C166" t="n">
-        <v>1.227653444153519e-157</v>
+        <v>1.539222220495325e-175</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150980000000001</v>
       </c>
       <c r="C167" t="n">
-        <v>3.586498444289643e-158</v>
+        <v>1.438361378451378e-175</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>1.845461959137246e-158</v>
+        <v>8.717743172872538e-176</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.15937</v>
       </c>
       <c r="C169" t="n">
-        <v>2.53349614159335e-158</v>
+        <v>6.684049295081511e-176</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.17005</v>
       </c>
       <c r="C170" t="n">
-        <v>1.522614987361907e-158</v>
+        <v>1.842429273507056e-176</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.18984</v>
       </c>
       <c r="C171" t="n">
-        <v>1.078048414290063e-158</v>
+        <v>2.609530364907679e-177</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210030000000001</v>
       </c>
       <c r="C172" t="n">
-        <v>7.136886482383187e-159</v>
+        <v>5.010253949150195e-178</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.23003</v>
       </c>
       <c r="C173" t="n">
-        <v>5.959835941041737e-159</v>
+        <v>1.238992607801381e-178</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.2395</v>
       </c>
       <c r="C174" t="n">
-        <v>4.227746542474171e-159</v>
+        <v>8.382924014182392e-179</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.24306</v>
       </c>
       <c r="C175" t="n">
-        <v>3.916841183704161e-159</v>
+        <v>7.115482020861255e-179</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.25013</v>
       </c>
       <c r="C176" t="n">
-        <v>2.222695153487946e-159</v>
+        <v>6.268337191577077e-179</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>9.40990274586904e-160</v>
+        <v>3.919168393484297e-179</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>6.514280913116424e-160</v>
+        <v>2.755232757656668e-179</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.26998</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1.812583123888027e-179</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1.11532670420292e-179</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.27502</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1.099402232207082e-179</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279809999999999</v>
+      </c>
+      <c r="C182" t="n">
+        <v>6.810796651865359e-180</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.28495</v>
+      </c>
+      <c r="C183" t="n">
+        <v>3.904099384455123e-180</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.29016</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2.393317840757166e-180</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.29294</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1.900345305700479e-180</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.29767</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1.307969514295056e-180</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.29972</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1.105369331756664e-180</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.30238</v>
+      </c>
+      <c r="C188" t="n">
+        <v>8.451856057814057e-181</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.30823</v>
+      </c>
+      <c r="C189" t="n">
+        <v>6.053784470485536e-181</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312880000000001</v>
+      </c>
+      <c r="C190" t="n">
+        <v>4.883598622303446e-181</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.31752</v>
+      </c>
+      <c r="C191" t="n">
+        <v>3.878998521272946e-181</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.32281</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2.926900933480899e-181</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.32768</v>
+      </c>
+      <c r="C193" t="n">
+        <v>2.333629822203667e-181</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1.767282963219032e-181</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.33291</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1.681297311149037e-181</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.33747</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1.195051678106638e-181</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.34274</v>
+      </c>
+      <c r="C197" t="n">
+        <v>7.162746437226918e-182</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.34293</v>
+      </c>
+      <c r="C198" t="n">
+        <v>6.934495895411973e-182</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.34694</v>
+      </c>
+      <c r="C199" t="n">
+        <v>4.521131842573644e-182</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.34826</v>
+      </c>
+      <c r="C200" t="n">
+        <v>3.916664387137575e-182</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.34858</v>
+      </c>
+      <c r="C201" t="n">
+        <v>3.724117069966512e-182</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.35205</v>
+      </c>
+      <c r="C202" t="n">
+        <v>3.633674828620873e-182</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.3536</v>
+      </c>
+      <c r="C203" t="n">
+        <v>2.82013989364386e-182</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.3579</v>
+      </c>
+      <c r="C204" t="n">
+        <v>2.145328132216952e-182</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359830000000001</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1.67731828732867e-182</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.36189</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1.343381063305211e-182</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.36386</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1.096503706643631e-182</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.36605</v>
+      </c>
+      <c r="C208" t="n">
+        <v>8.717083289231209e-183</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368040000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>6.916996739712809e-183</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.36965</v>
+      </c>
+      <c r="C210" t="n">
+        <v>6.192453721539066e-183</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.3748</v>
+      </c>
+      <c r="C211" t="n">
+        <v>2.143713129502937e-183</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.38009</v>
+      </c>
+      <c r="C212" t="n">
+        <v>5.906688139557745e-184</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382919999999999</v>
+      </c>
+      <c r="C213" t="n">
+        <v>2.945648065260703e-184</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.38334</v>
+      </c>
+      <c r="C214" t="n">
+        <v>4.025112137202132e-184</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383859999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>2.405189680721353e-184</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.38596</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1.663823979470613e-184</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.38986</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1.054967579637659e-184</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.39308</v>
+      </c>
+      <c r="C218" t="n">
+        <v>8.501452171491124e-185</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.40341</v>
+      </c>
+      <c r="C219" t="n">
+        <v>5.379401820207618e-185</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.41408</v>
+      </c>
+      <c r="C220" t="n">
+        <v>4.428876791076139e-185</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.42436</v>
+      </c>
+      <c r="C221" t="n">
+        <v>2.243076116050583e-185</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.43541</v>
+      </c>
+      <c r="C222" t="n">
+        <v>8.403418765461097e-186</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.43926</v>
+      </c>
+      <c r="C223" t="n">
+        <v>5.57492212409627e-186</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.150000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.150000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.99602</v>
+        <v>3.745075119653346</v>
       </c>
       <c r="C2" t="n">
-        <v>2.806496627944224e-139</v>
+        <v>7.206149579411442e-130</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.00097</v>
+        <v>3.762300554123211</v>
       </c>
       <c r="C3" t="n">
-        <v>5.344621795551124e-139</v>
+        <v>2.541167854307891e-130</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.779337451499375</v>
       </c>
       <c r="C4" t="n">
-        <v>6.923619049164993e-139</v>
+        <v>1.029715950970589e-130</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.00697</v>
+        <v>3.788087286620635</v>
       </c>
       <c r="C5" t="n">
-        <v>5.339348810942414e-139</v>
+        <v>7.603550098334006e-131</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.00909</v>
+        <v>3.796605735308717</v>
       </c>
       <c r="C6" t="n">
-        <v>4.727420804643788e-139</v>
+        <v>5.422290713130637e-131</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.01003</v>
+        <v>3.805055625053636</v>
       </c>
       <c r="C7" t="n">
-        <v>4.656596510878702e-139</v>
+        <v>5.962847387917032e-131</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.813539794270136</v>
       </c>
       <c r="C8" t="n">
-        <v>2.887917505756593e-139</v>
+        <v>5.257259048435434e-131</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.01911</v>
+        <v>3.817867577557342</v>
       </c>
       <c r="C9" t="n">
-        <v>2.341098201147096e-139</v>
+        <v>1.034115794190574e-130</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.01992</v>
+        <v>3.82226391978771</v>
       </c>
       <c r="C10" t="n">
-        <v>1.636454984465153e-139</v>
+        <v>1.193126631907791e-130</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.02504</v>
+        <v>3.830696669796837</v>
       </c>
       <c r="C11" t="n">
-        <v>1.401729099132946e-139</v>
+        <v>6.86514647201555e-131</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.02998</v>
+        <v>3.837569703848993</v>
       </c>
       <c r="C12" t="n">
-        <v>7.516985540677029e-140</v>
+        <v>3.260159657756719e-131</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.03514</v>
+        <v>3.844554146183789</v>
       </c>
       <c r="C13" t="n">
-        <v>4.5504701135952e-140</v>
+        <v>9.875187601333994e-132</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.26996</v>
+        <v>3.846319538970252</v>
       </c>
       <c r="C14" t="n">
-        <v>1.242837475279865e-147</v>
+        <v>6.601579834890392e-132</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.29005</v>
+        <v>3.847930674134597</v>
       </c>
       <c r="C15" t="n">
-        <v>2.104816944303036e-148</v>
+        <v>7.391620525330962e-132</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291119999999999</v>
+        <v>3.84977319573212</v>
       </c>
       <c r="C16" t="n">
-        <v>1.98485996839739e-148</v>
+        <v>2.832940623892848e-132</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.29319</v>
+        <v>3.852147049139162</v>
       </c>
       <c r="C17" t="n">
-        <v>1.471592021314066e-148</v>
+        <v>1.707048896890338e-132</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.2942</v>
+        <v>3.856414843351097</v>
       </c>
       <c r="C18" t="n">
-        <v>1.396707875035482e-148</v>
+        <v>7.1072897638096e-133</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.29515</v>
+        <v>3.865190388076044</v>
       </c>
       <c r="C19" t="n">
-        <v>1.672043370710655e-148</v>
+        <v>1.898235342786062e-133</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.29615</v>
+        <v>3.866878652051449</v>
       </c>
       <c r="C20" t="n">
-        <v>1.273739764860335e-148</v>
+        <v>1.279016407657314e-133</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.869363913741131</v>
       </c>
       <c r="C21" t="n">
-        <v>1.366633032689248e-148</v>
+        <v>1.066426012050296e-133</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298080000000001</v>
+        <v>3.873640277820963</v>
       </c>
       <c r="C22" t="n">
-        <v>2.435018753797771e-148</v>
+        <v>9.180410182767691e-134</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299090000000001</v>
+        <v>3.878070899522913</v>
       </c>
       <c r="C23" t="n">
-        <v>2.526134746010783e-148</v>
+        <v>8.326794397950607e-134</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.30105</v>
+        <v>3.881644534435317</v>
       </c>
       <c r="C24" t="n">
-        <v>2.88980083040916e-148</v>
+        <v>6.11377204592473e-134</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.3031</v>
+        <v>3.88648650979625</v>
       </c>
       <c r="C25" t="n">
-        <v>2.707964656446864e-148</v>
+        <v>8.993990181554424e-134</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.30523</v>
+        <v>3.890925701366096</v>
       </c>
       <c r="C26" t="n">
-        <v>2.021607809742832e-148</v>
+        <v>9.732848790172101e-134</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.899118495074151</v>
       </c>
       <c r="C27" t="n">
-        <v>2.110374773385909e-148</v>
+        <v>1.257622060093624e-133</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.3093</v>
+        <v>3.908014017949633</v>
       </c>
       <c r="C28" t="n">
-        <v>1.648847615350405e-148</v>
+        <v>1.601403090416202e-133</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.30996</v>
+        <v>3.916541036505611</v>
       </c>
       <c r="C29" t="n">
-        <v>1.633185306939657e-148</v>
+        <v>8.19140215754701e-134</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.31117</v>
+        <v>3.925025205722112</v>
       </c>
       <c r="C30" t="n">
-        <v>1.461635549246869e-148</v>
+        <v>2.322189639643283e-134</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.31311</v>
+        <v>3.933637922957044</v>
       </c>
       <c r="C31" t="n">
-        <v>1.258665531660547e-148</v>
+        <v>6.251889122741929e-135</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.31513</v>
+        <v>3.942370618342513</v>
       </c>
       <c r="C32" t="n">
-        <v>1.021184367786324e-148</v>
+        <v>1.603475493573261e-135</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.3172</v>
+        <v>3.950700529936895</v>
       </c>
       <c r="C33" t="n">
-        <v>8.080232852816216e-149</v>
+        <v>8.735925523069128e-136</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.31917</v>
+        <v>3.959476074661841</v>
       </c>
       <c r="C34" t="n">
-        <v>8.299314407073371e-149</v>
+        <v>3.128142926734046e-136</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.967797416388328</v>
       </c>
       <c r="C35" t="n">
-        <v>6.244262356095726e-149</v>
+        <v>1.464332203426416e-136</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.97227945729765</v>
       </c>
       <c r="C36" t="n">
-        <v>5.270804234945565e-149</v>
+        <v>6.665847921711776e-137</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.32521</v>
+        <v>3.976384424019573</v>
       </c>
       <c r="C37" t="n">
-        <v>2.896532601677038e-149</v>
+        <v>5.524600863009133e-137</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.32711</v>
+        <v>3.984954291915029</v>
       </c>
       <c r="C38" t="n">
-        <v>2.558691600153233e-149</v>
+        <v>6.124682214465252e-137</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.32908</v>
+        <v>4.002231145592266</v>
       </c>
       <c r="C39" t="n">
-        <v>1.813737454730888e-149</v>
+        <v>1.091924812069328e-137</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.33012</v>
+        <v>4.010826723091408</v>
       </c>
       <c r="C40" t="n">
-        <v>2.048371820540247e-149</v>
+        <v>2.518701047908655e-138</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.33119</v>
+        <v>4.019208053893163</v>
       </c>
       <c r="C41" t="n">
-        <v>2.84313952810709e-149</v>
+        <v>1.139781907208943e-138</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.33324</v>
+        <v>4.036424918495132</v>
       </c>
       <c r="C42" t="n">
-        <v>2.484571351010482e-149</v>
+        <v>2.767936183407236e-139</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.33515</v>
+        <v>4.053547514550251</v>
       </c>
       <c r="C43" t="n">
-        <v>2.0041334459707e-149</v>
+        <v>9.483276655033012e-140</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.34004</v>
+        <v>4.070687250341162</v>
       </c>
       <c r="C44" t="n">
-        <v>1.242300258077409e-149</v>
+        <v>4.572651467820889e-140</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.34488</v>
+        <v>4.075126441911007</v>
       </c>
       <c r="C45" t="n">
-        <v>9.031738515152742e-150</v>
+        <v>7.528217230852422e-140</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.34998</v>
+        <v>4.078297293032326</v>
       </c>
       <c r="C46" t="n">
-        <v>5.916659112117602e-150</v>
+        <v>6.628104187650889e-140</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.37005</v>
+        <v>4.087861265603653</v>
       </c>
       <c r="C47" t="n">
-        <v>8.46125708559809e-151</v>
+        <v>3.702226239627321e-140</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.39015</v>
+        <v>4.09212905981559</v>
       </c>
       <c r="C48" t="n">
-        <v>2.388845884117342e-151</v>
+        <v>2.763315197240156e-140</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.41003</v>
+        <v>4.096551111649645</v>
       </c>
       <c r="C49" t="n">
-        <v>7.768773161045209e-152</v>
+        <v>1.752466668163358e-140</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.42024</v>
+        <v>4.105069560337727</v>
       </c>
       <c r="C50" t="n">
-        <v>5.123824216562484e-152</v>
+        <v>7.968746070554432e-141</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.43018</v>
+        <v>4.113468030875272</v>
       </c>
       <c r="C51" t="n">
-        <v>3.273412368565173e-152</v>
+        <v>3.136102140682934e-141</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.44004</v>
+        <v>4.122132167317578</v>
       </c>
       <c r="C52" t="n">
-        <v>3.227721915025529e-152</v>
+        <v>1.469083086659001e-141</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.44994</v>
+        <v>4.12395754917931</v>
       </c>
       <c r="C53" t="n">
-        <v>2.550551500167358e-152</v>
+        <v>1.200502394852745e-141</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.45499</v>
+        <v>4.126622778094797</v>
       </c>
       <c r="C54" t="n">
-        <v>4.744381033169645e-152</v>
+        <v>9.865198029192189e-142</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.46012</v>
+        <v>4.13072774481672</v>
       </c>
       <c r="C55" t="n">
-        <v>5.171877312626559e-152</v>
+        <v>6.989292865730293e-142</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469959999999999</v>
+        <v>4.139151924957952</v>
       </c>
       <c r="C56" t="n">
-        <v>2.668898601951361e-152</v>
+        <v>3.681631898691044e-142</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477980000000001</v>
+        <v>4.156411638899399</v>
       </c>
       <c r="C57" t="n">
-        <v>1.159809058529639e-152</v>
+        <v>1.137378074026056e-142</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.48613</v>
+        <v>4.170346244097408</v>
       </c>
       <c r="C58" t="n">
-        <v>3.21021202105048e-153</v>
+        <v>5.205547371733167e-143</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.48819</v>
+        <v>4.190571132330683</v>
       </c>
       <c r="C59" t="n">
-        <v>2.09767555306676e-153</v>
+        <v>1.794187808790492e-143</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490069999999999</v>
+        <v>4.199158139961929</v>
       </c>
       <c r="C60" t="n">
-        <v>2.300366542079913e-153</v>
+        <v>1.416083581558319e-143</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.49222</v>
+        <v>4.207916544951084</v>
       </c>
       <c r="C61" t="n">
-        <v>8.609233627231271e-154</v>
+        <v>9.519507347752502e-144</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.49499</v>
+        <v>4.216340725092316</v>
       </c>
       <c r="C62" t="n">
-        <v>5.031107963216675e-154</v>
+        <v>6.621682996005705e-144</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499969999999999</v>
+        <v>4.221645473319603</v>
       </c>
       <c r="C63" t="n">
-        <v>1.982411027156013e-154</v>
+        <v>5.478507976146159e-144</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.51021</v>
+        <v>4.225107699949367</v>
       </c>
       <c r="C64" t="n">
-        <v>4.727574736678299e-155</v>
+        <v>4.536059012252654e-144</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.51218</v>
+        <v>4.230875221043007</v>
       </c>
       <c r="C65" t="n">
-        <v>3.116728502647319e-155</v>
+        <v>3.616160081006022e-144</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.51508</v>
+        <v>4.23929940118424</v>
       </c>
       <c r="C66" t="n">
-        <v>2.516631422354228e-155</v>
+        <v>2.320662779061333e-144</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.52007</v>
+        <v>4.24231599468344</v>
       </c>
       <c r="C67" t="n">
-        <v>2.050099454219178e-155</v>
+        <v>1.859007780201765e-144</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.52524</v>
+        <v>4.24787783894759</v>
       </c>
       <c r="C68" t="n">
-        <v>1.756102159960067e-155</v>
+        <v>1.35875773159541e-144</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529409999999999</v>
+        <v>4.252257041442167</v>
       </c>
       <c r="C69" t="n">
-        <v>1.231246721652274e-155</v>
+        <v>9.907709196398496e-145</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.53506</v>
+        <v>4.25472516339606</v>
       </c>
       <c r="C70" t="n">
-        <v>1.70153557483191e-155</v>
+        <v>8.133372529393889e-145</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.54024</v>
+        <v>4.25739896217944</v>
       </c>
       <c r="C71" t="n">
-        <v>1.738760013672857e-155</v>
+        <v>6.507545788773216e-145</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.5498</v>
+        <v>4.259258623512755</v>
       </c>
       <c r="C72" t="n">
-        <v>2.021230095085323e-155</v>
+        <v>5.651909376799697e-145</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.56018</v>
+        <v>4.2616239070519</v>
       </c>
       <c r="C73" t="n">
-        <v>2.294522191008807e-155</v>
+        <v>4.472352145898681e-145</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570130000000001</v>
+        <v>4.263192192876769</v>
       </c>
       <c r="C74" t="n">
-        <v>1.051336906994293e-155</v>
+        <v>3.860314191696548e-145</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580030000000001</v>
+        <v>4.271830619715387</v>
       </c>
       <c r="C75" t="n">
-        <v>2.671244547743954e-156</v>
+        <v>1.631725229622865e-145</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.59008</v>
+        <v>4.27642406890735</v>
       </c>
       <c r="C76" t="n">
-        <v>6.434855714521317e-157</v>
+        <v>1.062215877865167e-145</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.60027</v>
+        <v>4.28036620813926</v>
       </c>
       <c r="C77" t="n">
-        <v>1.474445686010346e-157</v>
+        <v>6.590718884765194e-146</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.60999</v>
+        <v>4.28891036643103</v>
       </c>
       <c r="C78" t="n">
-        <v>7.213940327853626e-158</v>
+        <v>2.652995463958211e-146</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.62023</v>
+        <v>4.293495245755098</v>
       </c>
       <c r="C79" t="n">
-        <v>2.306475660306438e-158</v>
+        <v>1.70233500878577e-146</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.62994</v>
+        <v>4.297651631684394</v>
       </c>
       <c r="C80" t="n">
-        <v>9.697217131035976e-159</v>
+        <v>1.062314873104698e-146</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.63517</v>
+        <v>4.300136893374075</v>
       </c>
       <c r="C81" t="n">
-        <v>4.166138565323598e-159</v>
+        <v>8.352492984837354e-147</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.300239731788821</v>
       </c>
       <c r="C82" t="n">
-        <v>3.274644344521192e-159</v>
+        <v>8.307464745799241e-147</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.64996</v>
+        <v>4.30191942589633</v>
       </c>
       <c r="C83" t="n">
-        <v>3.250114138999238e-159</v>
+        <v>7.223353457885713e-147</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.67012</v>
+        <v>4.306187220108267</v>
       </c>
       <c r="C84" t="n">
-        <v>4.635991809160804e-160</v>
+        <v>5.047343494967566e-147</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.68015</v>
+        <v>4.308783890080591</v>
       </c>
       <c r="C85" t="n">
-        <v>9.570491130351998e-161</v>
+        <v>4.162046478966041e-147</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.68993</v>
+        <v>4.310729250092858</v>
       </c>
       <c r="C86" t="n">
-        <v>3.88676463402292e-161</v>
+        <v>3.622732410813573e-147</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.31302597468884</v>
       </c>
       <c r="C87" t="n">
-        <v>7.557771648687542e-162</v>
+        <v>3.392008138480309e-147</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.73</v>
+        <v>4.315699773472222</v>
       </c>
       <c r="C88" t="n">
-        <v>2.075849447101357e-162</v>
+        <v>3.009583387545329e-147</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.75</v>
+        <v>4.318107906350845</v>
       </c>
       <c r="C89" t="n">
-        <v>8.022489836130919e-163</v>
+        <v>2.628718607498367e-147</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.75518</v>
+        <v>4.320910253152659</v>
       </c>
       <c r="C90" t="n">
-        <v>1.247223431194684e-162</v>
+        <v>2.136267625431511e-147</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.75888</v>
+        <v>4.323318386031281</v>
       </c>
       <c r="C91" t="n">
-        <v>1.054055841092412e-162</v>
+        <v>1.740165277084021e-147</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.77004</v>
+        <v>4.327757577601127</v>
       </c>
       <c r="C92" t="n">
-        <v>5.203738691218081e-163</v>
+        <v>1.174432184699785e-147</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.77502</v>
+        <v>4.331931103266214</v>
       </c>
       <c r="C93" t="n">
-        <v>3.675826108391669e-163</v>
+        <v>7.305252027408967e-148</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780180000000001</v>
+        <v>4.340535250633251</v>
       </c>
       <c r="C94" t="n">
-        <v>2.201818107341522e-163</v>
+        <v>2.356489870886982e-148</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.79012</v>
+        <v>4.344845894184665</v>
       </c>
       <c r="C95" t="n">
-        <v>8.96936651647699e-164</v>
+        <v>1.425805694821387e-148</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799919999999999</v>
+        <v>4.348762323812888</v>
       </c>
       <c r="C96" t="n">
-        <v>3.167194736631439e-164</v>
+        <v>8.424342317288268e-149</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.81003</v>
+        <v>4.357083665539375</v>
       </c>
       <c r="C97" t="n">
-        <v>1.326643453913863e-164</v>
+        <v>3.426855235413005e-149</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.362054188918739</v>
       </c>
       <c r="C98" t="n">
-        <v>1.058855333094475e-164</v>
+        <v>2.197750225492561e-149</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.365250749643743</v>
       </c>
       <c r="C99" t="n">
-        <v>8.406910454012265e-165</v>
+        <v>1.690029661170902e-149</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.82006</v>
+        <v>4.367855989483961</v>
       </c>
       <c r="C100" t="n">
-        <v>5.648703447926317e-165</v>
+        <v>1.411294336516623e-149</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.82989</v>
+        <v>4.369681371345694</v>
       </c>
       <c r="C101" t="n">
-        <v>2.668852309830704e-165</v>
+        <v>1.167111090340672e-149</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.370624056814194</v>
       </c>
       <c r="C102" t="n">
-        <v>6.598116772476302e-166</v>
+        <v>1.079352157057836e-149</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.86629</v>
+        <v>4.371001131001594</v>
       </c>
       <c r="C103" t="n">
-        <v>2.522639607783071e-166</v>
+        <v>1.053570253963656e-149</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.88989</v>
+        <v>4.371241087302666</v>
       </c>
       <c r="C104" t="n">
-        <v>6.696733361784911e-167</v>
+        <v>1.030538041241216e-149</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.89991</v>
+        <v>4.37310074863598</v>
       </c>
       <c r="C105" t="n">
-        <v>4.730855886406301e-167</v>
+        <v>8.796449780455682e-150</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.37479758247928</v>
       </c>
       <c r="C106" t="n">
-        <v>2.840272873644321e-167</v>
+        <v>7.578264742023544e-150</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.91996</v>
+        <v>4.376545835529954</v>
       </c>
       <c r="C107" t="n">
-        <v>1.772077122189189e-167</v>
+        <v>6.632079152816928e-150</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.92615</v>
+        <v>4.378156970694299</v>
       </c>
       <c r="C108" t="n">
-        <v>1.369098544977513e-167</v>
+        <v>5.257332258942944e-150</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930190000000001</v>
+        <v>4.379236774049127</v>
       </c>
       <c r="C109" t="n">
-        <v>1.084025859447686e-167</v>
+        <v>4.920954010364947e-150</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.93692</v>
+        <v>4.379845234669704</v>
       </c>
       <c r="C110" t="n">
-        <v>8.021806282312237e-168</v>
+        <v>4.724008815646291e-150</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.94675</v>
+        <v>4.382493323849399</v>
       </c>
       <c r="C111" t="n">
-        <v>4.617481877072921e-168</v>
+        <v>3.840136806499329e-150</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.95027</v>
+        <v>4.386743978325545</v>
       </c>
       <c r="C112" t="n">
-        <v>3.55763518308672e-168</v>
+        <v>2.442658455434719e-150</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.95676</v>
+        <v>4.391003202669586</v>
       </c>
       <c r="C113" t="n">
-        <v>2.420131500581773e-168</v>
+        <v>1.528592640914809e-150</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869999999999</v>
+        <v>4.395073889919927</v>
       </c>
       <c r="C114" t="n">
-        <v>1.667698614584828e-168</v>
+        <v>1.06193712718225e-150</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.96475</v>
+        <v>4.396290811161082</v>
       </c>
       <c r="C115" t="n">
-        <v>1.326102537570637e-168</v>
+        <v>9.429852217914461e-151</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.96787</v>
+        <v>4.399607350036622</v>
       </c>
       <c r="C116" t="n">
-        <v>1.025020715370225e-168</v>
+        <v>9.050399087246166e-151</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.97004</v>
+        <v>4.403952273059619</v>
       </c>
       <c r="C117" t="n">
-        <v>8.691288072164088e-169</v>
+        <v>1.123156292511344e-150</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.406326126466659</v>
       </c>
       <c r="C118" t="n">
-        <v>6.670580809513342e-169</v>
+        <v>1.149722211368399e-150</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.97463</v>
+        <v>4.408974215646356</v>
       </c>
       <c r="C119" t="n">
-        <v>5.642317159670488e-169</v>
+        <v>9.969980237681347e-151</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.98471</v>
+        <v>4.411759422712378</v>
       </c>
       <c r="C120" t="n">
-        <v>2.133287093357713e-169</v>
+        <v>8.223325254869853e-151</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990069999999999</v>
+        <v>4.41349053602726</v>
       </c>
       <c r="C121" t="n">
-        <v>1.308763704758015e-169</v>
+        <v>7.330531056654608e-151</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669999999999</v>
+        <v>4.414321813213119</v>
       </c>
       <c r="C122" t="n">
-        <v>7.717543381486052e-170</v>
+        <v>6.924091531827854e-151</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.00464</v>
+        <v>4.419515153157765</v>
       </c>
       <c r="C123" t="n">
-        <v>2.782138619678716e-170</v>
+        <v>4.487619780843906e-151</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.421511932377406</v>
       </c>
       <c r="C124" t="n">
-        <v>1.682602432725642e-170</v>
+        <v>3.530586473532717e-151</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.01484</v>
+        <v>4.430664551289752</v>
       </c>
       <c r="C125" t="n">
-        <v>9.951450274522501e-171</v>
+        <v>1.095250572356859e-151</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.01774</v>
+        <v>4.447624319854858</v>
       </c>
       <c r="C126" t="n">
-        <v>7.577313625765669e-171</v>
+        <v>1.930955936605363e-152</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.01786</v>
+        <v>4.464926883135782</v>
       </c>
       <c r="C127" t="n">
-        <v>7.526465450202458e-171</v>
+        <v>4.635312519584997e-153</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019819999999999</v>
+        <v>4.482066618926692</v>
       </c>
       <c r="C128" t="n">
-        <v>6.40389185180094e-171</v>
+        <v>1.430159098932739e-153</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.0248</v>
+        <v>4.490182283823687</v>
       </c>
       <c r="C129" t="n">
-        <v>4.23486910188599e-171</v>
+        <v>1.07451576789202e-153</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027830000000001</v>
+        <v>4.493233156794469</v>
       </c>
       <c r="C130" t="n">
-        <v>3.376956429301064e-171</v>
+        <v>9.486952813963457e-154</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.0301</v>
+        <v>4.499292053396556</v>
       </c>
       <c r="C131" t="n">
-        <v>2.866472973827127e-171</v>
+        <v>9.037427523198315e-154</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032780000000001</v>
+        <v>4.507699093801998</v>
       </c>
       <c r="C132" t="n">
-        <v>2.605502946641623e-171</v>
+        <v>6.298275653467362e-154</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.0359</v>
+        <v>4.512069726428679</v>
       </c>
       <c r="C133" t="n">
-        <v>2.233315254431438e-171</v>
+        <v>4.68479513992621e-154</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.03871</v>
+        <v>4.516303241169035</v>
       </c>
       <c r="C134" t="n">
-        <v>1.890976851893514e-171</v>
+        <v>3.255112805715186e-154</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041980000000001</v>
+        <v>4.520571035380971</v>
       </c>
       <c r="C135" t="n">
-        <v>1.482129043649203e-171</v>
+        <v>2.116402203188748e-154</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.04479</v>
+        <v>4.520622454588343</v>
       </c>
       <c r="C136" t="n">
-        <v>1.170359593021203e-171</v>
+        <v>2.08756981136638e-154</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.04997</v>
+        <v>4.524727421310266</v>
       </c>
       <c r="C137" t="n">
-        <v>7.458780187263074e-172</v>
+        <v>1.363632629993931e-154</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.05484</v>
+        <v>4.529132333408531</v>
       </c>
       <c r="C138" t="n">
-        <v>4.396181402655117e-172</v>
+        <v>8.274030156030915e-155</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.06488</v>
+        <v>4.533597234582063</v>
       </c>
       <c r="C139" t="n">
-        <v>1.269011644883399e-172</v>
+        <v>5.373159268904054e-155</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.06991</v>
+        <v>4.535979657856999</v>
       </c>
       <c r="C140" t="n">
-        <v>7.262600265932242e-173</v>
+        <v>4.399661374247236e-155</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.07448</v>
+        <v>4.540033205371549</v>
       </c>
       <c r="C141" t="n">
-        <v>4.079526742703619e-173</v>
+        <v>3.190884904907637e-155</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.08419</v>
+        <v>4.541790028290118</v>
       </c>
       <c r="C142" t="n">
-        <v>1.490440886080599e-173</v>
+        <v>2.758486134806077e-155</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.08999</v>
+        <v>4.54406961315031</v>
       </c>
       <c r="C143" t="n">
-        <v>8.964568436789901e-174</v>
+        <v>2.172182456895679e-155</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093719999999999</v>
+        <v>4.54908298586915</v>
       </c>
       <c r="C144" t="n">
-        <v>6.614901931784898e-174</v>
+        <v>1.659890155575122e-155</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.553067974440538</v>
       </c>
       <c r="C145" t="n">
-        <v>5.341214700320395e-174</v>
+        <v>1.409726162973216e-155</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.09889</v>
+        <v>4.557044393144028</v>
       </c>
       <c r="C146" t="n">
-        <v>4.31420095651241e-174</v>
+        <v>1.178714880306285e-155</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.09999</v>
+        <v>4.561577853260723</v>
       </c>
       <c r="C147" t="n">
-        <v>3.941540914258888e-174</v>
+        <v>9.430064467176906e-156</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.10043</v>
+        <v>4.56575137892581</v>
       </c>
       <c r="C148" t="n">
-        <v>3.8287080889202e-174</v>
+        <v>7.93483805762036e-156</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100709999999999</v>
+        <v>4.570207710231447</v>
       </c>
       <c r="C149" t="n">
-        <v>3.733425025919635e-174</v>
+        <v>6.364982957911202e-156</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.10288</v>
+        <v>4.570233419835134</v>
       </c>
       <c r="C150" t="n">
-        <v>3.111174562279293e-174</v>
+        <v>6.057310234567661e-156</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.10486</v>
+        <v>4.574141279595461</v>
       </c>
       <c r="C151" t="n">
-        <v>2.622244512832875e-174</v>
+        <v>4.528266250604716e-156</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.1069</v>
+        <v>4.578657599976365</v>
       </c>
       <c r="C152" t="n">
-        <v>2.243630239035438e-174</v>
+        <v>2.877042223700317e-156</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.10878</v>
+        <v>4.578820427466379</v>
       </c>
       <c r="C153" t="n">
-        <v>1.74194304553347e-174</v>
+        <v>2.791222576438586e-156</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110040000000001</v>
+        <v>4.582256944492457</v>
       </c>
       <c r="C154" t="n">
-        <v>1.607917500561436e-174</v>
+        <v>1.902365955222735e-156</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.583388167054657</v>
       </c>
       <c r="C155" t="n">
-        <v>1.531488480647722e-174</v>
+        <v>1.672266970807259e-156</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.11384</v>
+        <v>4.583662402827311</v>
       </c>
       <c r="C156" t="n">
-        <v>1.203103096441789e-174</v>
+        <v>1.595695864381072e-156</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.1188</v>
+        <v>4.586636146987034</v>
       </c>
       <c r="C157" t="n">
-        <v>7.244142711655851e-175</v>
+        <v>1.617877268047355e-156</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123769999999999</v>
+        <v>4.58796447651083</v>
       </c>
       <c r="C158" t="n">
-        <v>4.290778256205532e-175</v>
+        <v>1.277372706414313e-156</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.12852</v>
+        <v>4.591649519705875</v>
       </c>
       <c r="C159" t="n">
-        <v>2.828265830585758e-175</v>
+        <v>1.01906391803714e-156</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.12994</v>
+        <v>4.593303504209699</v>
       </c>
       <c r="C160" t="n">
-        <v>2.472313083771744e-175</v>
+        <v>8.139476571681111e-157</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.13381</v>
+        <v>4.595068896996162</v>
       </c>
       <c r="C161" t="n">
-        <v>2.273378067403847e-175</v>
+        <v>6.669267580733572e-157</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.13888</v>
+        <v>4.596757160971567</v>
       </c>
       <c r="C162" t="n">
-        <v>2.667372709906368e-175</v>
+        <v>5.563582283691817e-157</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.14165</v>
+        <v>4.598633962040672</v>
       </c>
       <c r="C163" t="n">
-        <v>2.648055511586817e-175</v>
+        <v>4.531460076278625e-157</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144740000000001</v>
+        <v>4.600339365751868</v>
       </c>
       <c r="C164" t="n">
-        <v>2.219124017542432e-175</v>
+        <v>3.6757513126831e-157</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.14799</v>
+        <v>4.601719114483036</v>
       </c>
       <c r="C165" t="n">
-        <v>1.765708820256471e-175</v>
+        <v>3.34986323464091e-157</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.15001</v>
+        <v>4.606132596449195</v>
       </c>
       <c r="C166" t="n">
-        <v>1.539222220495325e-175</v>
+        <v>1.227653444153519e-157</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150980000000001</v>
+        <v>4.610666056565891</v>
       </c>
       <c r="C167" t="n">
-        <v>1.438361378451378e-175</v>
+        <v>3.586498444289643e-158</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.613091329180303</v>
       </c>
       <c r="C168" t="n">
-        <v>8.717743172872538e-176</v>
+        <v>1.845461959137246e-158</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.15937</v>
+        <v>4.613451263631914</v>
       </c>
       <c r="C169" t="n">
-        <v>6.684049295081511e-176</v>
+        <v>2.53349614159335e-158</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.17005</v>
+        <v>4.613896896762476</v>
       </c>
       <c r="C170" t="n">
-        <v>1.842429273507056e-176</v>
+        <v>1.522614987361907e-158</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.18984</v>
+        <v>4.615696569020522</v>
       </c>
       <c r="C171" t="n">
-        <v>2.609530364907679e-177</v>
+        <v>1.078048414290063e-158</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210030000000001</v>
+        <v>4.619038817499749</v>
       </c>
       <c r="C172" t="n">
-        <v>5.010253949150195e-178</v>
+        <v>7.136886482383187e-159</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.23003</v>
+        <v>4.621798314962087</v>
       </c>
       <c r="C173" t="n">
-        <v>1.238992607801381e-178</v>
+        <v>5.959835941041737e-159</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.2395</v>
+        <v>4.630650988498092</v>
       </c>
       <c r="C174" t="n">
-        <v>8.382924014182392e-179</v>
+        <v>4.227746542474171e-159</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.24306</v>
+        <v>4.639795037542543</v>
       </c>
       <c r="C175" t="n">
-        <v>7.115482020861255e-179</v>
+        <v>3.916841183704161e-159</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.25013</v>
+        <v>4.64860486173907</v>
       </c>
       <c r="C176" t="n">
-        <v>6.268337191577077e-179</v>
+        <v>2.222695153487946e-159</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>5.25994</v>
+        <v>4.658074565763548</v>
       </c>
       <c r="C177" t="n">
-        <v>3.919168393484297e-179</v>
+        <v>9.40990274586904e-160</v>
       </c>
     </row>
     <row r="178">
@@ -2319,505 +2319,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>5.26504</v>
+        <v>4.661373964903298</v>
       </c>
       <c r="C178" t="n">
-        <v>2.755232757656668e-179</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.26998</v>
-      </c>
-      <c r="C179" t="n">
-        <v>1.812583123888027e-179</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>1.11532670420292e-179</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.27502</v>
-      </c>
-      <c r="C181" t="n">
-        <v>1.099402232207082e-179</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279809999999999</v>
-      </c>
-      <c r="C182" t="n">
-        <v>6.810796651865359e-180</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.28495</v>
-      </c>
-      <c r="C183" t="n">
-        <v>3.904099384455123e-180</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.29016</v>
-      </c>
-      <c r="C184" t="n">
-        <v>2.393317840757166e-180</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.29294</v>
-      </c>
-      <c r="C185" t="n">
-        <v>1.900345305700479e-180</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.29767</v>
-      </c>
-      <c r="C186" t="n">
-        <v>1.307969514295056e-180</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.29972</v>
-      </c>
-      <c r="C187" t="n">
-        <v>1.105369331756664e-180</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.30238</v>
-      </c>
-      <c r="C188" t="n">
-        <v>8.451856057814057e-181</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.30823</v>
-      </c>
-      <c r="C189" t="n">
-        <v>6.053784470485536e-181</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312880000000001</v>
-      </c>
-      <c r="C190" t="n">
-        <v>4.883598622303446e-181</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.31752</v>
-      </c>
-      <c r="C191" t="n">
-        <v>3.878998521272946e-181</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.32281</v>
-      </c>
-      <c r="C192" t="n">
-        <v>2.926900933480899e-181</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.32768</v>
-      </c>
-      <c r="C193" t="n">
-        <v>2.333629822203667e-181</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>1.767282963219032e-181</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.33291</v>
-      </c>
-      <c r="C195" t="n">
-        <v>1.681297311149037e-181</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.33747</v>
-      </c>
-      <c r="C196" t="n">
-        <v>1.195051678106638e-181</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.34274</v>
-      </c>
-      <c r="C197" t="n">
-        <v>7.162746437226918e-182</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.34293</v>
-      </c>
-      <c r="C198" t="n">
-        <v>6.934495895411973e-182</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.34694</v>
-      </c>
-      <c r="C199" t="n">
-        <v>4.521131842573644e-182</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.34826</v>
-      </c>
-      <c r="C200" t="n">
-        <v>3.916664387137575e-182</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.34858</v>
-      </c>
-      <c r="C201" t="n">
-        <v>3.724117069966512e-182</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.35205</v>
-      </c>
-      <c r="C202" t="n">
-        <v>3.633674828620873e-182</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.3536</v>
-      </c>
-      <c r="C203" t="n">
-        <v>2.82013989364386e-182</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.3579</v>
-      </c>
-      <c r="C204" t="n">
-        <v>2.145328132216952e-182</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359830000000001</v>
-      </c>
-      <c r="C205" t="n">
-        <v>1.67731828732867e-182</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.36189</v>
-      </c>
-      <c r="C206" t="n">
-        <v>1.343381063305211e-182</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.36386</v>
-      </c>
-      <c r="C207" t="n">
-        <v>1.096503706643631e-182</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.36605</v>
-      </c>
-      <c r="C208" t="n">
-        <v>8.717083289231209e-183</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368040000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>6.916996739712809e-183</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.36965</v>
-      </c>
-      <c r="C210" t="n">
-        <v>6.192453721539066e-183</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.3748</v>
-      </c>
-      <c r="C211" t="n">
-        <v>2.143713129502937e-183</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.38009</v>
-      </c>
-      <c r="C212" t="n">
-        <v>5.906688139557745e-184</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382919999999999</v>
-      </c>
-      <c r="C213" t="n">
-        <v>2.945648065260703e-184</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.38334</v>
-      </c>
-      <c r="C214" t="n">
-        <v>4.025112137202132e-184</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383859999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>2.405189680721353e-184</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.38596</v>
-      </c>
-      <c r="C216" t="n">
-        <v>1.663823979470613e-184</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.38986</v>
-      </c>
-      <c r="C217" t="n">
-        <v>1.054967579637659e-184</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.39308</v>
-      </c>
-      <c r="C218" t="n">
-        <v>8.501452171491124e-185</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.40341</v>
-      </c>
-      <c r="C219" t="n">
-        <v>5.379401820207618e-185</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.41408</v>
-      </c>
-      <c r="C220" t="n">
-        <v>4.428876791076139e-185</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.42436</v>
-      </c>
-      <c r="C221" t="n">
-        <v>2.243076116050583e-185</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.43541</v>
-      </c>
-      <c r="C222" t="n">
-        <v>8.403418765461097e-186</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.43926</v>
-      </c>
-      <c r="C223" t="n">
-        <v>5.57492212409627e-186</v>
+        <v>6.514280913116424e-160</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.150000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.150000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.996021</v>
       </c>
       <c r="C2" t="n">
-        <v>7.206149579411442e-130</v>
+        <v>4.392431456736483e-121</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.000967</v>
       </c>
       <c r="C3" t="n">
-        <v>2.541167854307891e-130</v>
+        <v>5.21082491126396e-121</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>1.029715950970589e-130</v>
+        <v>6.291649430391488e-121</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.006972</v>
       </c>
       <c r="C5" t="n">
-        <v>7.603550098334006e-131</v>
+        <v>4.634477650466688e-121</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.009086</v>
       </c>
       <c r="C6" t="n">
-        <v>5.422290713130637e-131</v>
+        <v>4.858277591498205e-121</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.010032</v>
       </c>
       <c r="C7" t="n">
-        <v>5.962847387917032e-131</v>
+        <v>4.317080791924324e-121</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>5.257259048435434e-131</v>
+        <v>2.849780781356202e-121</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.019108</v>
       </c>
       <c r="C9" t="n">
-        <v>1.034115794190574e-130</v>
+        <v>2.289227971393819e-121</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.019916</v>
       </c>
       <c r="C10" t="n">
-        <v>1.193126631907791e-130</v>
+        <v>1.527443019380951e-121</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.025044</v>
       </c>
       <c r="C11" t="n">
-        <v>6.86514647201555e-131</v>
+        <v>1.311591248908201e-121</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.029979</v>
       </c>
       <c r="C12" t="n">
-        <v>3.260159657756719e-131</v>
+        <v>1.005715060806274e-121</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.035141</v>
       </c>
       <c r="C13" t="n">
-        <v>9.875187601333994e-132</v>
+        <v>4.370870355519121e-122</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.269958</v>
       </c>
       <c r="C14" t="n">
-        <v>6.601579834890392e-132</v>
+        <v>1.143150950738089e-129</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.290051</v>
       </c>
       <c r="C15" t="n">
-        <v>7.391620525330962e-132</v>
+        <v>1.916547343614106e-130</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291116000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>2.832940623892848e-132</v>
+        <v>1.906343057064917e-130</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.293189</v>
       </c>
       <c r="C17" t="n">
-        <v>1.707048896890338e-132</v>
+        <v>1.379535712318341e-130</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.294196</v>
       </c>
       <c r="C18" t="n">
-        <v>7.1072897638096e-133</v>
+        <v>1.322920720470976e-130</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.295147</v>
       </c>
       <c r="C19" t="n">
-        <v>1.898235342786062e-133</v>
+        <v>1.559093434735922e-130</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.296155000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>1.279016407657314e-133</v>
+        <v>1.193317054380489e-130</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>1.066426012050296e-133</v>
+        <v>1.312472091563863e-130</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298083999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>9.180410182767691e-134</v>
+        <v>2.212600367819071e-130</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299093</v>
       </c>
       <c r="C23" t="n">
-        <v>8.326794397950607e-134</v>
+        <v>2.390776460368862e-130</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.301051999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>6.11377204592473e-134</v>
+        <v>2.877397410360501e-130</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.303098</v>
       </c>
       <c r="C25" t="n">
-        <v>8.993990181554424e-134</v>
+        <v>2.612786530447661e-130</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.305231</v>
       </c>
       <c r="C26" t="n">
-        <v>9.732848790172101e-134</v>
+        <v>2.095140315337142e-130</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>1.257622060093624e-133</v>
+        <v>1.97876750992286e-130</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.309297</v>
       </c>
       <c r="C28" t="n">
-        <v>1.601403090416202e-133</v>
+        <v>1.656976469410841e-130</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.309961</v>
       </c>
       <c r="C29" t="n">
-        <v>8.19140215754701e-134</v>
+        <v>1.560880172184984e-130</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.311172</v>
       </c>
       <c r="C30" t="n">
-        <v>2.322189639643283e-134</v>
+        <v>1.398533619067731e-130</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.313105999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>6.251889122741929e-135</v>
+        <v>1.225591866191029e-130</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.315126</v>
       </c>
       <c r="C32" t="n">
-        <v>1.603475493573261e-135</v>
+        <v>9.852832220335463e-131</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.317204</v>
       </c>
       <c r="C33" t="n">
-        <v>8.735925523069128e-136</v>
+        <v>7.937625619151399e-131</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.319168</v>
       </c>
       <c r="C34" t="n">
-        <v>3.128142926734046e-136</v>
+        <v>7.732130171964567e-131</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>1.464332203426416e-136</v>
+        <v>5.912845286942641e-131</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>6.665847921711776e-137</v>
+        <v>4.926458382941583e-131</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.325205</v>
       </c>
       <c r="C37" t="n">
-        <v>5.524600863009133e-137</v>
+        <v>2.804189502992063e-131</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.327112000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>6.124682214465252e-137</v>
+        <v>2.409776327374985e-131</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.329078</v>
       </c>
       <c r="C39" t="n">
-        <v>1.091924812069328e-137</v>
+        <v>1.959814574752401e-131</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.330119</v>
       </c>
       <c r="C40" t="n">
-        <v>2.518701047908655e-138</v>
+        <v>1.936677445474038e-131</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.331189</v>
       </c>
       <c r="C41" t="n">
-        <v>1.139781907208943e-138</v>
+        <v>2.664041425666671e-131</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.333242</v>
       </c>
       <c r="C42" t="n">
-        <v>2.767936183407236e-139</v>
+        <v>2.34607127599911e-131</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.335151000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>9.483276655033012e-140</v>
+        <v>1.864249773785498e-131</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.340042</v>
       </c>
       <c r="C44" t="n">
-        <v>4.572651467820889e-140</v>
+        <v>1.160768570846186e-131</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.344876999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>7.528217230852422e-140</v>
+        <v>8.394338164301084e-132</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.349976</v>
       </c>
       <c r="C46" t="n">
-        <v>6.628104187650889e-140</v>
+        <v>5.534788073436642e-132</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.370053</v>
       </c>
       <c r="C47" t="n">
-        <v>3.702226239627321e-140</v>
+        <v>7.844188240678846e-133</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.390148</v>
       </c>
       <c r="C48" t="n">
-        <v>2.763315197240156e-140</v>
+        <v>2.233333370645663e-133</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.410025</v>
       </c>
       <c r="C49" t="n">
-        <v>1.752466668163358e-140</v>
+        <v>7.229307172947631e-134</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.420244</v>
       </c>
       <c r="C50" t="n">
-        <v>7.968746070554432e-141</v>
+        <v>4.796004841763443e-134</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.430182</v>
       </c>
       <c r="C51" t="n">
-        <v>3.136102140682934e-141</v>
+        <v>3.059150162183073e-134</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.440043</v>
       </c>
       <c r="C52" t="n">
-        <v>1.469083086659001e-141</v>
+        <v>3.003959228624739e-134</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.449945</v>
       </c>
       <c r="C53" t="n">
-        <v>1.200502394852745e-141</v>
+        <v>2.373484361739793e-134</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.454988</v>
       </c>
       <c r="C54" t="n">
-        <v>9.865198029192189e-142</v>
+        <v>4.430897117359086e-134</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.460121</v>
       </c>
       <c r="C55" t="n">
-        <v>6.989292865730293e-142</v>
+        <v>4.824620459643533e-134</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469957</v>
       </c>
       <c r="C56" t="n">
-        <v>3.681631898691044e-142</v>
+        <v>2.486767905657366e-134</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477981</v>
       </c>
       <c r="C57" t="n">
-        <v>1.137378074026056e-142</v>
+        <v>1.080917717296005e-134</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.486129</v>
       </c>
       <c r="C58" t="n">
-        <v>5.205547371733167e-143</v>
+        <v>2.998873252906163e-135</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.488189</v>
       </c>
       <c r="C59" t="n">
-        <v>1.794187808790492e-143</v>
+        <v>1.961295496817338e-135</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490073000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>1.416083581558319e-143</v>
+        <v>2.145945416639975e-135</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.492223</v>
       </c>
       <c r="C61" t="n">
-        <v>9.519507347752502e-144</v>
+        <v>8.021518639818032e-136</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.494992</v>
       </c>
       <c r="C62" t="n">
-        <v>6.621682996005705e-144</v>
+        <v>4.676089525502288e-136</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499972000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>5.478507976146159e-144</v>
+        <v>1.838759488133389e-136</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.510205</v>
       </c>
       <c r="C64" t="n">
-        <v>4.536059012252654e-144</v>
+        <v>4.412355666343679e-137</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.512183</v>
       </c>
       <c r="C65" t="n">
-        <v>3.616160081006022e-144</v>
+        <v>2.912019365330241e-137</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.515076000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>2.320662779061333e-144</v>
+        <v>2.370334198148179e-137</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.520067</v>
       </c>
       <c r="C67" t="n">
-        <v>1.859007780201765e-144</v>
+        <v>1.90957227523479e-137</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.525238</v>
       </c>
       <c r="C68" t="n">
-        <v>1.35875773159541e-144</v>
+        <v>1.675781551022325e-137</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529406</v>
       </c>
       <c r="C69" t="n">
-        <v>9.907709196398496e-145</v>
+        <v>1.178774294624487e-137</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.535056</v>
       </c>
       <c r="C70" t="n">
-        <v>8.133372529393889e-145</v>
+        <v>1.553754223633744e-137</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.540236</v>
       </c>
       <c r="C71" t="n">
-        <v>6.507545788773216e-145</v>
+        <v>1.64408020577904e-137</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.549804</v>
       </c>
       <c r="C72" t="n">
-        <v>5.651909376799697e-145</v>
+        <v>1.885942570487424e-137</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.560183</v>
       </c>
       <c r="C73" t="n">
-        <v>4.472352145898681e-145</v>
+        <v>2.140401114884532e-137</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570129</v>
       </c>
       <c r="C74" t="n">
-        <v>3.860314191696548e-145</v>
+        <v>9.815283260416343e-138</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580025</v>
       </c>
       <c r="C75" t="n">
-        <v>1.631725229622865e-145</v>
+        <v>2.491855482460894e-138</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.590082</v>
       </c>
       <c r="C76" t="n">
-        <v>1.062215877865167e-145</v>
+        <v>6.032050324229952e-139</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.600268</v>
       </c>
       <c r="C77" t="n">
-        <v>6.590718884765194e-146</v>
+        <v>1.375383992273677e-139</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.609989</v>
       </c>
       <c r="C78" t="n">
-        <v>2.652995463958211e-146</v>
+        <v>6.754372832368933e-140</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.620227</v>
       </c>
       <c r="C79" t="n">
-        <v>1.70233500878577e-146</v>
+        <v>2.19546223362874e-140</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.629939</v>
       </c>
       <c r="C80" t="n">
-        <v>1.062314873104698e-146</v>
+        <v>9.042080418193268e-141</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.635173</v>
       </c>
       <c r="C81" t="n">
-        <v>8.352492984837354e-147</v>
+        <v>3.876323780037142e-141</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>8.307464745799241e-147</v>
+        <v>3.050800357601721e-141</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.649962</v>
       </c>
       <c r="C83" t="n">
-        <v>7.223353457885713e-147</v>
+        <v>3.02538606421999e-141</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.670119000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>5.047343494967566e-147</v>
+        <v>4.314709579908141e-142</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.680153</v>
       </c>
       <c r="C85" t="n">
-        <v>4.162046478966041e-147</v>
+        <v>8.891842445870517e-143</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.689928</v>
       </c>
       <c r="C86" t="n">
-        <v>3.622732410813573e-147</v>
+        <v>3.620320612373958e-143</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>3.392008138480309e-147</v>
+        <v>7.052054728613019e-144</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.730004</v>
       </c>
       <c r="C88" t="n">
-        <v>3.009583387545329e-147</v>
+        <v>1.920160172606294e-144</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.749999</v>
       </c>
       <c r="C89" t="n">
-        <v>2.628718607498367e-147</v>
+        <v>7.481107891735676e-145</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.755179</v>
       </c>
       <c r="C90" t="n">
-        <v>2.136267625431511e-147</v>
+        <v>1.16115275827625e-144</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.758876</v>
       </c>
       <c r="C91" t="n">
-        <v>1.740165277084021e-147</v>
+        <v>9.805305951186888e-145</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.770038</v>
       </c>
       <c r="C92" t="n">
-        <v>1.174432184699785e-147</v>
+        <v>4.861089761229444e-145</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.775016</v>
       </c>
       <c r="C93" t="n">
-        <v>7.305252027408967e-148</v>
+        <v>3.420348669578134e-145</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780179</v>
       </c>
       <c r="C94" t="n">
-        <v>2.356489870886982e-148</v>
+        <v>2.044019005993853e-145</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.790118</v>
       </c>
       <c r="C95" t="n">
-        <v>1.425805694821387e-148</v>
+        <v>8.370337541259766e-146</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799915</v>
       </c>
       <c r="C96" t="n">
-        <v>8.424342317288268e-149</v>
+        <v>2.950767073349599e-146</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.810027</v>
       </c>
       <c r="C97" t="n">
-        <v>3.426855235413005e-149</v>
+        <v>1.239054827941211e-146</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>2.197750225492561e-149</v>
+        <v>9.893674072298912e-147</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>1.690029661170902e-149</v>
+        <v>7.778450858973267e-147</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.820058</v>
       </c>
       <c r="C100" t="n">
-        <v>1.411294336516623e-149</v>
+        <v>5.278163808369769e-147</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.829886</v>
       </c>
       <c r="C101" t="n">
-        <v>1.167111090340672e-149</v>
+        <v>2.485376178634878e-147</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>1.079352157057836e-149</v>
+        <v>6.148319083930686e-148</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.866293</v>
       </c>
       <c r="C103" t="n">
-        <v>1.053570253963656e-149</v>
+        <v>2.353908771235703e-148</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.889892</v>
       </c>
       <c r="C104" t="n">
-        <v>1.030538041241216e-149</v>
+        <v>6.240262370415387e-149</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.899914</v>
       </c>
       <c r="C105" t="n">
-        <v>8.796449780455682e-150</v>
+        <v>4.404696260617377e-149</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>7.578264742023544e-150</v>
+        <v>2.647740803538663e-149</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.919957</v>
       </c>
       <c r="C107" t="n">
-        <v>6.632079152816928e-150</v>
+        <v>1.650213366417517e-149</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.926154</v>
       </c>
       <c r="C108" t="n">
-        <v>5.257332258942944e-150</v>
+        <v>1.275678901566688e-149</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930194999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>4.920954010364947e-150</v>
+        <v>1.009642740986863e-149</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.936923</v>
       </c>
       <c r="C110" t="n">
-        <v>4.724008815646291e-150</v>
+        <v>7.48201856218017e-150</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.946745</v>
       </c>
       <c r="C111" t="n">
-        <v>3.840136806499329e-150</v>
+        <v>4.304733252487591e-150</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.950269</v>
       </c>
       <c r="C112" t="n">
-        <v>2.442658455434719e-150</v>
+        <v>3.315400771690095e-150</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.956763</v>
       </c>
       <c r="C113" t="n">
-        <v>1.528592640914809e-150</v>
+        <v>2.253213628982455e-150</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869</v>
       </c>
       <c r="C114" t="n">
-        <v>1.06193712718225e-150</v>
+        <v>1.553572993319368e-150</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.964748</v>
       </c>
       <c r="C115" t="n">
-        <v>9.429852217914461e-151</v>
+        <v>1.235761463045928e-150</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.967875</v>
       </c>
       <c r="C116" t="n">
-        <v>9.050399087246166e-151</v>
+        <v>9.550054883796745e-151</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.970043</v>
       </c>
       <c r="C117" t="n">
-        <v>1.123156292511344e-150</v>
+        <v>8.085201503764797e-151</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>1.149722211368399e-150</v>
+        <v>6.213454740803957e-151</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.974629</v>
       </c>
       <c r="C119" t="n">
-        <v>9.969980237681347e-151</v>
+        <v>5.257765080329784e-151</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.984706</v>
       </c>
       <c r="C120" t="n">
-        <v>8.223325254869853e-151</v>
+        <v>1.987884910516242e-151</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990074</v>
       </c>
       <c r="C121" t="n">
-        <v>7.330531056654608e-151</v>
+        <v>1.218385355204284e-151</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669</v>
       </c>
       <c r="C122" t="n">
-        <v>6.924091531827854e-151</v>
+        <v>7.198792325478044e-152</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.004642</v>
       </c>
       <c r="C123" t="n">
-        <v>4.487619780843906e-151</v>
+        <v>2.591336195500996e-152</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>3.530586473532717e-151</v>
+        <v>1.567154810124934e-152</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.014843</v>
       </c>
       <c r="C125" t="n">
-        <v>1.095250572356859e-151</v>
+        <v>9.281743449684318e-153</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.017737</v>
       </c>
       <c r="C126" t="n">
-        <v>1.930955936605363e-152</v>
+        <v>7.062576445112713e-153</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.017861</v>
       </c>
       <c r="C127" t="n">
-        <v>4.635312519584997e-153</v>
+        <v>7.018009603671322e-153</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019822</v>
       </c>
       <c r="C128" t="n">
-        <v>1.430159098932739e-153</v>
+        <v>5.979780128944328e-153</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.024805000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>1.07451576789202e-153</v>
+        <v>3.945736374953283e-153</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027826</v>
       </c>
       <c r="C130" t="n">
-        <v>9.486952813963457e-154</v>
+        <v>3.152958915332592e-153</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.030101</v>
       </c>
       <c r="C131" t="n">
-        <v>9.037427523198315e-154</v>
+        <v>2.668508387607022e-153</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032781</v>
       </c>
       <c r="C132" t="n">
-        <v>6.298275653467362e-154</v>
+        <v>2.427955950570678e-153</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.035899</v>
       </c>
       <c r="C133" t="n">
-        <v>4.68479513992621e-154</v>
+        <v>2.079582309258856e-153</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.038705999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>3.255112805715186e-154</v>
+        <v>1.761118501192424e-153</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041981</v>
       </c>
       <c r="C135" t="n">
-        <v>2.116402203188748e-154</v>
+        <v>1.382506856743186e-153</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.044789</v>
       </c>
       <c r="C136" t="n">
-        <v>2.08756981136638e-154</v>
+        <v>1.089490565641519e-153</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.049971</v>
       </c>
       <c r="C137" t="n">
-        <v>1.363632629993931e-154</v>
+        <v>6.945429117114553e-154</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.054843</v>
       </c>
       <c r="C138" t="n">
-        <v>8.274030156030915e-155</v>
+        <v>4.097704326299621e-154</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.064876</v>
       </c>
       <c r="C139" t="n">
-        <v>5.373159268904054e-155</v>
+        <v>1.182023172941063e-154</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.069912</v>
       </c>
       <c r="C140" t="n">
-        <v>4.399661374247236e-155</v>
+        <v>6.745644945429128e-155</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.074481</v>
       </c>
       <c r="C141" t="n">
-        <v>3.190884904907637e-155</v>
+        <v>3.806237755125586e-155</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.084189</v>
       </c>
       <c r="C142" t="n">
-        <v>2.758486134806077e-155</v>
+        <v>1.391141753120991e-155</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.089986</v>
       </c>
       <c r="C143" t="n">
-        <v>2.172182456895679e-155</v>
+        <v>8.339610158103899e-156</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093717</v>
       </c>
       <c r="C144" t="n">
-        <v>1.659890155575122e-155</v>
+        <v>6.131484360161014e-156</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>1.409726162973216e-155</v>
+        <v>4.97167307982179e-156</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.098893</v>
       </c>
       <c r="C146" t="n">
-        <v>1.178714880306285e-155</v>
+        <v>4.01929147399489e-156</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.099991</v>
       </c>
       <c r="C147" t="n">
-        <v>9.430064467176906e-156</v>
+        <v>3.691130117805414e-156</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.100430999999999</v>
       </c>
       <c r="C148" t="n">
-        <v>7.93483805762036e-156</v>
+        <v>3.573259961251529e-156</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100713</v>
       </c>
       <c r="C149" t="n">
-        <v>6.364982957911202e-156</v>
+        <v>3.481174731711883e-156</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.102879</v>
       </c>
       <c r="C150" t="n">
-        <v>6.057310234567661e-156</v>
+        <v>2.896836361504688e-156</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.104856</v>
       </c>
       <c r="C151" t="n">
-        <v>4.528266250604716e-156</v>
+        <v>2.43274379655081e-156</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.106897</v>
       </c>
       <c r="C152" t="n">
-        <v>2.877042223700317e-156</v>
+        <v>2.08202454360002e-156</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.108781</v>
       </c>
       <c r="C153" t="n">
-        <v>2.791222576438586e-156</v>
+        <v>1.630300987809304e-156</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110037</v>
       </c>
       <c r="C154" t="n">
-        <v>1.902365955222735e-156</v>
+        <v>1.497082547347786e-156</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>1.672266970807259e-156</v>
+        <v>1.430689816100395e-156</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.113839</v>
       </c>
       <c r="C156" t="n">
-        <v>1.595695864381072e-156</v>
+        <v>1.120908458975156e-156</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.118804</v>
       </c>
       <c r="C157" t="n">
-        <v>1.617877268047355e-156</v>
+        <v>6.753545076111775e-157</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123773</v>
       </c>
       <c r="C158" t="n">
-        <v>1.277372706414313e-156</v>
+        <v>4.022852513820791e-157</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.128523</v>
       </c>
       <c r="C159" t="n">
-        <v>1.01906391803714e-156</v>
+        <v>2.63124183860346e-157</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.129939</v>
       </c>
       <c r="C160" t="n">
-        <v>8.139476571681111e-157</v>
+        <v>2.300860042956146e-157</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.133811</v>
       </c>
       <c r="C161" t="n">
-        <v>6.669267580733572e-157</v>
+        <v>2.113034192828226e-157</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.138881</v>
       </c>
       <c r="C162" t="n">
-        <v>5.563582283691817e-157</v>
+        <v>2.500480620801443e-157</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.141653</v>
       </c>
       <c r="C163" t="n">
-        <v>4.531460076278625e-157</v>
+        <v>2.461029837645154e-157</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144741000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>3.6757513126831e-157</v>
+        <v>2.06639817432548e-157</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.147988</v>
       </c>
       <c r="C165" t="n">
-        <v>3.34986323464091e-157</v>
+        <v>1.641235676597475e-157</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.150005999999999</v>
       </c>
       <c r="C166" t="n">
-        <v>1.227653444153519e-157</v>
+        <v>1.432246693441367e-157</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150983</v>
       </c>
       <c r="C167" t="n">
-        <v>3.586498444289643e-158</v>
+        <v>1.339720340402644e-157</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>1.845461959137246e-158</v>
+        <v>8.111302098263303e-158</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.159375</v>
       </c>
       <c r="C169" t="n">
-        <v>2.53349614159335e-158</v>
+        <v>6.234717634579701e-158</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.170048</v>
       </c>
       <c r="C170" t="n">
-        <v>1.522614987361907e-158</v>
+        <v>1.716530045181836e-158</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.189844</v>
       </c>
       <c r="C171" t="n">
-        <v>1.078048414290063e-158</v>
+        <v>2.428387147800934e-159</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210028</v>
       </c>
       <c r="C172" t="n">
-        <v>7.136886482383187e-159</v>
+        <v>4.672811840699456e-160</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.230028</v>
       </c>
       <c r="C173" t="n">
-        <v>5.959835941041737e-159</v>
+        <v>1.15579476702968e-160</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.239501000000001</v>
       </c>
       <c r="C174" t="n">
-        <v>4.227746542474171e-159</v>
+        <v>7.829215573645819e-161</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.243064</v>
       </c>
       <c r="C175" t="n">
-        <v>3.916841183704161e-159</v>
+        <v>6.610084758450553e-161</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.250129</v>
       </c>
       <c r="C176" t="n">
-        <v>2.222695153487946e-159</v>
+        <v>5.821695103074834e-161</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>9.40990274586904e-160</v>
+        <v>3.671526937677558e-161</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>6.514280913116424e-160</v>
+        <v>2.564309630314931e-161</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.269983</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1.687574585687816e-161</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1.036643981640726e-161</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.275024</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1.024021187226488e-161</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279812000000001</v>
+      </c>
+      <c r="C182" t="n">
+        <v>6.344976297666236e-162</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.284953</v>
+      </c>
+      <c r="C183" t="n">
+        <v>3.633026038673796e-162</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.290161</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2.235897937030349e-162</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.292942</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1.783960147181526e-162</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.297674</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1.222007274920083e-162</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.299721</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1.032044259037871e-162</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.302376000000001</v>
+      </c>
+      <c r="C188" t="n">
+        <v>7.911161366378241e-163</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.308233</v>
+      </c>
+      <c r="C189" t="n">
+        <v>5.652896099049135e-163</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312876</v>
+      </c>
+      <c r="C190" t="n">
+        <v>4.564112550506715e-163</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.317521</v>
+      </c>
+      <c r="C191" t="n">
+        <v>3.616271883689374e-163</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.322808999999999</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2.721835655893236e-163</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.327683</v>
+      </c>
+      <c r="C193" t="n">
+        <v>2.171603390187213e-163</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1.647626910287344e-163</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.332912</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1.566717229406868e-163</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.337469</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1.110773355972954e-163</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.342735</v>
+      </c>
+      <c r="C197" t="n">
+        <v>6.678677076005392e-164</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.342928</v>
+      </c>
+      <c r="C198" t="n">
+        <v>6.46284687517917e-164</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.346943</v>
+      </c>
+      <c r="C199" t="n">
+        <v>4.218784423473207e-164</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.348261</v>
+      </c>
+      <c r="C200" t="n">
+        <v>3.654041329801983e-164</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.348582</v>
+      </c>
+      <c r="C201" t="n">
+        <v>3.474884056758512e-164</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.352053</v>
+      </c>
+      <c r="C202" t="n">
+        <v>3.385553264689942e-164</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.353596</v>
+      </c>
+      <c r="C203" t="n">
+        <v>2.626704172740135e-164</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.357905000000001</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1.992720443146366e-164</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359834999999999</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1.562871680415243e-164</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.361894</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1.251978603493114e-164</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.363857</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1.02171905026437e-164</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.366045</v>
+      </c>
+      <c r="C208" t="n">
+        <v>8.105982268934944e-165</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368041000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>6.441371976388822e-165</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.369651</v>
+      </c>
+      <c r="C210" t="n">
+        <v>5.781240227184525e-165</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.374804</v>
+      </c>
+      <c r="C211" t="n">
+        <v>2.002733627249733e-165</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.380088</v>
+      </c>
+      <c r="C212" t="n">
+        <v>5.497728512183703e-166</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382924</v>
+      </c>
+      <c r="C213" t="n">
+        <v>2.740344843763378e-166</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.383343</v>
+      </c>
+      <c r="C214" t="n">
+        <v>3.74943747049153e-166</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383858999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>2.240253322803974e-166</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.385955</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1.547381848206873e-166</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.389858</v>
+      </c>
+      <c r="C217" t="n">
+        <v>9.741881848075969e-167</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.393084</v>
+      </c>
+      <c r="C218" t="n">
+        <v>7.753039907534744e-167</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.403415</v>
+      </c>
+      <c r="C219" t="n">
+        <v>5.021004964251933e-167</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.414078</v>
+      </c>
+      <c r="C220" t="n">
+        <v>4.119272867355239e-167</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.424364</v>
+      </c>
+      <c r="C221" t="n">
+        <v>2.086162534958832e-167</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.435405</v>
+      </c>
+      <c r="C222" t="n">
+        <v>7.8242447455113e-168</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.439261</v>
+      </c>
+      <c r="C223" t="n">
+        <v>5.182415778739509e-168</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.150000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.150000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.996021</v>
+        <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>4.392431456736483e-121</v>
+        <v>3.859677219406028e-130</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.000967</v>
+        <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>5.21082491126396e-121</v>
+        <v>1.325602225183847e-130</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>6.291649430391488e-121</v>
+        <v>5.327180677715606e-131</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.006972</v>
+        <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>4.634477650466688e-121</v>
+        <v>3.992781634015473e-131</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.009086</v>
+        <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>4.858277591498205e-121</v>
+        <v>2.831706026375379e-131</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.010032</v>
+        <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>4.317080791924324e-121</v>
+        <v>3.040604041349941e-131</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>2.849780781356202e-121</v>
+        <v>2.684859733690962e-131</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.019108</v>
+        <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>2.289227971393819e-121</v>
+        <v>5.174909134715404e-131</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.019916</v>
+        <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>1.527443019380951e-121</v>
+        <v>5.960904289411485e-131</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.025044</v>
+        <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>1.311591248908201e-121</v>
+        <v>3.435357974868431e-131</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.029979</v>
+        <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>1.005715060806274e-121</v>
+        <v>1.627772328828347e-131</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.035141</v>
+        <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>4.370870355519121e-122</v>
+        <v>4.938241686001992e-132</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.269958</v>
+        <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>1.143150950738089e-129</v>
+        <v>3.321449705192727e-132</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.290051</v>
+        <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>1.916547343614106e-130</v>
+        <v>3.707663152813506e-132</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291116000000001</v>
+        <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>1.906343057064917e-130</v>
+        <v>1.444745831357147e-132</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.293189</v>
+        <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>1.379535712318341e-130</v>
+        <v>8.52943846853638e-133</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.294196</v>
+        <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>1.322920720470976e-130</v>
+        <v>3.592614914535661e-133</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.295147</v>
+        <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>1.559093434735922e-130</v>
+        <v>1.000623707069641e-133</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.296155000000001</v>
+        <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>1.193317054380489e-130</v>
+        <v>6.713018905252427e-134</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>1.312472091563863e-130</v>
+        <v>5.533960057069568e-134</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298083999999999</v>
+        <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>2.212600367819071e-130</v>
+        <v>4.903474636860475e-134</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299093</v>
+        <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>2.390776460368862e-130</v>
+        <v>4.406392361663726e-134</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.301051999999999</v>
+        <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>2.877397410360501e-130</v>
+        <v>3.224390341900553e-134</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.303098</v>
+        <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>2.612786530447661e-130</v>
+        <v>4.577100035922429e-134</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.305231</v>
+        <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>2.095140315337142e-130</v>
+        <v>5.103655469036383e-134</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>1.97876750992286e-130</v>
+        <v>6.313641047394322e-134</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.309297</v>
+        <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>1.656976469410841e-130</v>
+        <v>8.093793254853264e-134</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.309961</v>
+        <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>1.560880172184984e-130</v>
+        <v>4.173196541516463e-134</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.311172</v>
+        <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>1.398533619067731e-130</v>
+        <v>1.160908080421908e-134</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.313105999999999</v>
+        <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>1.225591866191029e-130</v>
+        <v>3.170912239612958e-135</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.315126</v>
+        <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>9.852832220335463e-131</v>
+        <v>8.178270273876948e-136</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.317204</v>
+        <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>7.937625619151399e-131</v>
+        <v>4.409753103514366e-136</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.319168</v>
+        <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>7.732130171964567e-131</v>
+        <v>1.55056882217792e-136</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>5.912845286942641e-131</v>
+        <v>7.640820817028094e-137</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>4.926458382941583e-131</v>
+        <v>3.247663949974215e-137</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.325205</v>
+        <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>2.804189502992063e-131</v>
+        <v>2.855239479464115e-137</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.327112000000001</v>
+        <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>2.409776327374985e-131</v>
+        <v>3.149882822569405e-137</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.329078</v>
+        <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>1.959814574752401e-131</v>
+        <v>5.613556576999321e-138</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.330119</v>
+        <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>1.936677445474038e-131</v>
+        <v>1.297452721161806e-138</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.331189</v>
+        <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>2.664041425666671e-131</v>
+        <v>6.144047174169122e-139</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.333242</v>
+        <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>2.34607127599911e-131</v>
+        <v>1.467408013169596e-139</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.335151000000001</v>
+        <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>1.864249773785498e-131</v>
+        <v>4.807384181085489e-140</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.340042</v>
+        <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>1.160768570846186e-131</v>
+        <v>2.389133773068653e-140</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.344876999999999</v>
+        <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>8.394338164301084e-132</v>
+        <v>3.835079915551489e-140</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.349976</v>
+        <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>5.534788073436642e-132</v>
+        <v>3.381168757286064e-140</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.370053</v>
+        <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>7.844188240678846e-133</v>
+        <v>1.902389328435798e-140</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.390148</v>
+        <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>2.233333370645663e-133</v>
+        <v>1.402982719659012e-140</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.410025</v>
+        <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>7.229307172947631e-134</v>
+        <v>8.795275937779634e-141</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.420244</v>
+        <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>4.796004841763443e-134</v>
+        <v>4.091589156163428e-141</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.430182</v>
+        <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>3.059150162183073e-134</v>
+        <v>1.620369192175115e-141</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.440043</v>
+        <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>3.003959228624739e-134</v>
+        <v>7.70725756039683e-142</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.449945</v>
+        <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>2.373484361739793e-134</v>
+        <v>6.207265267842635e-142</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.454988</v>
+        <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>4.430897117359086e-134</v>
+        <v>5.051577957752244e-142</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.460121</v>
+        <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>4.824620459643533e-134</v>
+        <v>3.600512890952139e-142</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469957</v>
+        <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>2.486767905657366e-134</v>
+        <v>1.88869301663176e-142</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477981</v>
+        <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>1.080917717296005e-134</v>
+        <v>5.849334043149855e-143</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.486129</v>
+        <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>2.998873252906163e-135</v>
+        <v>2.677831748892675e-143</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.488189</v>
+        <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>1.961295496817338e-135</v>
+        <v>9.156292911953971e-144</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490073000000001</v>
+        <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>2.145945416639975e-135</v>
+        <v>7.116765418737875e-144</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.492223</v>
+        <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>8.021518639818032e-136</v>
+        <v>4.810391101344502e-144</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.494992</v>
+        <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>4.676089525502288e-136</v>
+        <v>3.317050107780418e-144</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499972000000001</v>
+        <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>1.838759488133389e-136</v>
+        <v>2.739861475198856e-144</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.510205</v>
+        <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>4.412355666343679e-137</v>
+        <v>2.270568528794759e-144</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.512183</v>
+        <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>2.912019365330241e-137</v>
+        <v>1.81741542836759e-144</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.515076000000001</v>
+        <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>2.370334198148179e-137</v>
+        <v>1.164213698979631e-144</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.520067</v>
+        <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>1.90957227523479e-137</v>
+        <v>9.294038562919874e-145</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.525238</v>
+        <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>1.675781551022325e-137</v>
+        <v>6.768269119125918e-145</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529406</v>
+        <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>1.178774294624487e-137</v>
+        <v>4.943589247322289e-145</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.535056</v>
+        <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>1.553754223633744e-137</v>
+        <v>4.083728407098277e-145</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.540236</v>
+        <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>1.64408020577904e-137</v>
+        <v>3.249945240905349e-145</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.549804</v>
+        <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>1.885942570487424e-137</v>
+        <v>2.826886998380593e-145</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.560183</v>
+        <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>2.140401114884532e-137</v>
+        <v>2.232130906489883e-145</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570129</v>
+        <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>9.815283260416343e-138</v>
+        <v>1.934933028382121e-145</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580025</v>
+        <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>2.491855482460894e-138</v>
+        <v>8.173964734385405e-146</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.590082</v>
+        <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>6.032050324229952e-139</v>
+        <v>5.312365521569739e-146</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.600268</v>
+        <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>1.375383992273677e-139</v>
+        <v>3.298538094704399e-146</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.609989</v>
+        <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>6.754372832368933e-140</v>
+        <v>1.332151714152235e-146</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.620227</v>
+        <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>2.19546223362874e-140</v>
+        <v>8.537827812410367e-147</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.629939</v>
+        <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>9.042080418193268e-141</v>
+        <v>5.362455051197014e-147</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.635173</v>
+        <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>3.876323780037142e-141</v>
+        <v>4.210485999080964e-147</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>3.050800357601721e-141</v>
+        <v>4.175914873815203e-147</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.649962</v>
+        <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>3.02538606421999e-141</v>
+        <v>3.650338675132262e-147</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.670119000000001</v>
+        <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>4.314709579908141e-142</v>
+        <v>2.53849566388021e-147</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.680153</v>
+        <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>8.891842445870517e-143</v>
+        <v>2.102858997481422e-147</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.689928</v>
+        <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>3.620320612373958e-143</v>
+        <v>1.828610794916576e-147</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>7.052054728613019e-144</v>
+        <v>1.697155530938705e-147</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.730004</v>
+        <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>1.920160172606294e-144</v>
+        <v>1.51213367983145e-147</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.749999</v>
+        <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>7.481107891735676e-145</v>
+        <v>1.320392816960956e-147</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.755179</v>
+        <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>1.16115275827625e-144</v>
+        <v>1.075167492567192e-147</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.758876</v>
+        <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>9.805305951186888e-145</v>
+        <v>8.713820937065465e-148</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.770038</v>
+        <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>4.861089761229444e-145</v>
+        <v>5.874644389243519e-148</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.775016</v>
+        <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>3.420348669578134e-145</v>
+        <v>3.686192480630403e-148</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780179</v>
+        <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>2.044019005993853e-145</v>
+        <v>1.187328716993159e-148</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.790118</v>
+        <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>8.370337541259766e-146</v>
+        <v>7.189148137566057e-149</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799915</v>
+        <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>2.950767073349599e-146</v>
+        <v>4.292808829264025e-149</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.810027</v>
+        <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>1.239054827941211e-146</v>
+        <v>1.751966513478189e-149</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>9.893674072298912e-147</v>
+        <v>1.127277430401425e-149</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>7.778450858973267e-147</v>
+        <v>8.669863935921287e-150</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.820058</v>
+        <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>5.278163808369769e-147</v>
+        <v>7.232891303653056e-150</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.829886</v>
+        <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>2.485376178634878e-147</v>
+        <v>5.983824429472323e-150</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>6.148319083930686e-148</v>
+        <v>5.558676594607979e-150</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.866293</v>
+        <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>2.353908771235703e-148</v>
+        <v>5.455890442880116e-150</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.889892</v>
+        <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>6.240262370415387e-149</v>
+        <v>5.282516749658569e-150</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.899914</v>
+        <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>4.404696260617377e-149</v>
+        <v>4.47851254870155e-150</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>2.647740803538663e-149</v>
+        <v>3.824254310008065e-150</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.919957</v>
+        <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>1.650213366417517e-149</v>
+        <v>3.307840352219542e-150</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.926154</v>
+        <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>1.275678901566688e-149</v>
+        <v>2.738379052811181e-150</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930194999999999</v>
+        <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>1.009642740986863e-149</v>
+        <v>2.547282163637079e-150</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.936923</v>
+        <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>7.48201856218017e-150</v>
+        <v>2.460074097735753e-150</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.946745</v>
+        <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>4.304733252487591e-150</v>
+        <v>1.995831132004635e-150</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.950269</v>
+        <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>3.315400771690095e-150</v>
+        <v>1.266326872121206e-150</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.956763</v>
+        <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>2.253213628982455e-150</v>
+        <v>8.01831190199223e-151</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869</v>
+        <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>1.553572993319368e-150</v>
+        <v>5.540664704837654e-151</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.964748</v>
+        <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>1.235761463045928e-150</v>
+        <v>4.907435736498713e-151</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.967875</v>
+        <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>9.550054883796745e-151</v>
+        <v>4.74493896118381e-151</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.970043</v>
+        <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>8.085201503764797e-151</v>
+        <v>5.806566454878064e-151</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>6.213454740803957e-151</v>
+        <v>5.83240886361616e-151</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.974629</v>
+        <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>5.257765080329784e-151</v>
+        <v>5.104683317439937e-151</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.984706</v>
+        <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>1.987884910516242e-151</v>
+        <v>4.170957606538558e-151</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990074</v>
+        <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>1.218385355204284e-151</v>
+        <v>3.759251426301214e-151</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669</v>
+        <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>7.198792325478044e-152</v>
+        <v>3.532662027506836e-151</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.004642</v>
+        <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>2.591336195500996e-152</v>
+        <v>2.288241169743342e-151</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>1.567154810124934e-152</v>
+        <v>1.80434434010686e-151</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.014843</v>
+        <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>9.281743449684318e-153</v>
+        <v>5.640891590508172e-152</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.017737</v>
+        <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>7.062576445112713e-153</v>
+        <v>9.996626994695154e-153</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.017861</v>
+        <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>7.018009603671322e-153</v>
+        <v>2.431266364619717e-153</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019822</v>
+        <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>5.979780128944328e-153</v>
+        <v>7.383447054833944e-154</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.024805000000001</v>
+        <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>3.945736374953283e-153</v>
+        <v>5.564291613947856e-154</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027826</v>
+        <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>3.152958915332592e-153</v>
+        <v>4.86972272637278e-154</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.030101</v>
+        <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>2.668508387607022e-153</v>
+        <v>4.612073181980715e-154</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032781</v>
+        <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>2.427955950570678e-153</v>
+        <v>3.209480211310054e-154</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.035899</v>
+        <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>2.079582309258856e-153</v>
+        <v>2.40263928121236e-154</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.038705999999999</v>
+        <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>1.761118501192424e-153</v>
+        <v>1.652585326389471e-154</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041981</v>
+        <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>1.382506856743186e-153</v>
+        <v>1.063700190105993e-154</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.044789</v>
+        <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>1.089490565641519e-153</v>
+        <v>6.897840211285065e-155</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.049971</v>
+        <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>6.945429117114553e-154</v>
+        <v>4.173905455055676e-155</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.054843</v>
+        <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>4.097704326299621e-154</v>
+        <v>2.747235695713492e-155</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.064876</v>
+        <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>1.182023172941063e-154</v>
+        <v>2.294781719178527e-155</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.069912</v>
+        <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>6.745644945429128e-155</v>
+        <v>1.60864161366314e-155</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.074481</v>
+        <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>3.806237755125586e-155</v>
+        <v>1.406638199756872e-155</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.084189</v>
+        <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>1.391141753120991e-155</v>
+        <v>1.137593675468213e-155</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.089986</v>
+        <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>8.339610158103899e-156</v>
+        <v>8.565023199619489e-156</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093717</v>
+        <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>6.131484360161014e-156</v>
+        <v>7.232292645398577e-156</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>4.97167307982179e-156</v>
+        <v>6.014267134518993e-156</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.098893</v>
+        <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>4.01929147399489e-156</v>
+        <v>4.79727677262178e-156</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.099991</v>
+        <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>3.691130117805414e-156</v>
+        <v>4.008457215955868e-156</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.100430999999999</v>
+        <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>3.573259961251529e-156</v>
+        <v>3.14156603490991e-156</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100713</v>
+        <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>3.481174731711883e-156</v>
+        <v>2.271238427406919e-156</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.102879</v>
+        <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>2.896836361504688e-156</v>
+        <v>1.459848841727796e-156</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.104856</v>
+        <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>2.43274379655081e-156</v>
+        <v>1.416594265252666e-156</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.106897</v>
+        <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>2.08202454360002e-156</v>
+        <v>9.69144096582554e-157</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.108781</v>
+        <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>1.630300987809304e-156</v>
+        <v>8.480802556038638e-157</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110037</v>
+        <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>1.497082547347786e-156</v>
+        <v>8.114126799705524e-157</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>1.430689816100395e-156</v>
+        <v>8.144704621130299e-157</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.113839</v>
+        <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>1.120908458975156e-156</v>
+        <v>6.484441673001733e-157</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.118804</v>
+        <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>6.753545076111775e-157</v>
+        <v>5.153233983503314e-157</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123773</v>
+        <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>4.022852513820791e-157</v>
+        <v>4.140377270881699e-157</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.128523</v>
+        <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>2.63124183860346e-157</v>
+        <v>3.387600991481448e-157</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.129939</v>
+        <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>2.300860042956146e-157</v>
+        <v>2.827828608968259e-157</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.133811</v>
+        <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>2.113034192828226e-157</v>
+        <v>2.284863015069133e-157</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.138881</v>
+        <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>2.500480620801443e-157</v>
+        <v>1.875817968852959e-157</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.141653</v>
+        <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>2.461029837645154e-157</v>
+        <v>1.714820436754589e-157</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144741000000001</v>
+        <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>2.06639817432548e-157</v>
+        <v>6.38188396031024e-158</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.147988</v>
+        <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>1.641235676597475e-157</v>
+        <v>1.874153925221959e-158</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.150005999999999</v>
+        <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>1.432246693441367e-157</v>
+        <v>9.435242983630756e-159</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150983</v>
+        <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>1.339720340402644e-157</v>
+        <v>1.323843567955543e-158</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>8.111302098263303e-158</v>
+        <v>7.93219709915285e-159</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.159375</v>
+        <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>6.234717634579701e-158</v>
+        <v>5.546701511204579e-159</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.170048</v>
+        <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>1.716530045181836e-158</v>
+        <v>3.621402922102719e-159</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.189844</v>
+        <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>2.428387147800934e-159</v>
+        <v>2.970984765712794e-159</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210028</v>
+        <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>4.672811840699456e-160</v>
+        <v>2.229211334107761e-159</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.230028</v>
+        <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>1.15579476702968e-160</v>
+        <v>2.036131061156107e-159</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.239501000000001</v>
+        <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>7.829215573645819e-161</v>
+        <v>1.156216018730993e-159</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.243064</v>
+        <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>6.610084758450553e-161</v>
+        <v>4.890308510597108e-160</v>
       </c>
     </row>
     <row r="176">
@@ -2297,527 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.250129</v>
+        <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>5.821695103074834e-161</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>5.25994</v>
-      </c>
-      <c r="C177" t="n">
-        <v>3.671526937677558e-161</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>5.26504</v>
-      </c>
-      <c r="C178" t="n">
-        <v>2.564309630314931e-161</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.269983</v>
-      </c>
-      <c r="C179" t="n">
-        <v>1.687574585687816e-161</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>1.036643981640726e-161</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.275024</v>
-      </c>
-      <c r="C181" t="n">
-        <v>1.024021187226488e-161</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279812000000001</v>
-      </c>
-      <c r="C182" t="n">
-        <v>6.344976297666236e-162</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.284953</v>
-      </c>
-      <c r="C183" t="n">
-        <v>3.633026038673796e-162</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.290161</v>
-      </c>
-      <c r="C184" t="n">
-        <v>2.235897937030349e-162</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.292942</v>
-      </c>
-      <c r="C185" t="n">
-        <v>1.783960147181526e-162</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.297674</v>
-      </c>
-      <c r="C186" t="n">
-        <v>1.222007274920083e-162</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.299721</v>
-      </c>
-      <c r="C187" t="n">
-        <v>1.032044259037871e-162</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.302376000000001</v>
-      </c>
-      <c r="C188" t="n">
-        <v>7.911161366378241e-163</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.308233</v>
-      </c>
-      <c r="C189" t="n">
-        <v>5.652896099049135e-163</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312876</v>
-      </c>
-      <c r="C190" t="n">
-        <v>4.564112550506715e-163</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.317521</v>
-      </c>
-      <c r="C191" t="n">
-        <v>3.616271883689374e-163</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.322808999999999</v>
-      </c>
-      <c r="C192" t="n">
-        <v>2.721835655893236e-163</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.327683</v>
-      </c>
-      <c r="C193" t="n">
-        <v>2.171603390187213e-163</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>1.647626910287344e-163</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.332912</v>
-      </c>
-      <c r="C195" t="n">
-        <v>1.566717229406868e-163</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.337469</v>
-      </c>
-      <c r="C196" t="n">
-        <v>1.110773355972954e-163</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.342735</v>
-      </c>
-      <c r="C197" t="n">
-        <v>6.678677076005392e-164</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.342928</v>
-      </c>
-      <c r="C198" t="n">
-        <v>6.46284687517917e-164</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.346943</v>
-      </c>
-      <c r="C199" t="n">
-        <v>4.218784423473207e-164</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.348261</v>
-      </c>
-      <c r="C200" t="n">
-        <v>3.654041329801983e-164</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.348582</v>
-      </c>
-      <c r="C201" t="n">
-        <v>3.474884056758512e-164</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.352053</v>
-      </c>
-      <c r="C202" t="n">
-        <v>3.385553264689942e-164</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.353596</v>
-      </c>
-      <c r="C203" t="n">
-        <v>2.626704172740135e-164</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.357905000000001</v>
-      </c>
-      <c r="C204" t="n">
-        <v>1.992720443146366e-164</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359834999999999</v>
-      </c>
-      <c r="C205" t="n">
-        <v>1.562871680415243e-164</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.361894</v>
-      </c>
-      <c r="C206" t="n">
-        <v>1.251978603493114e-164</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.363857</v>
-      </c>
-      <c r="C207" t="n">
-        <v>1.02171905026437e-164</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.366045</v>
-      </c>
-      <c r="C208" t="n">
-        <v>8.105982268934944e-165</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368041000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>6.441371976388822e-165</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.369651</v>
-      </c>
-      <c r="C210" t="n">
-        <v>5.781240227184525e-165</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.374804</v>
-      </c>
-      <c r="C211" t="n">
-        <v>2.002733627249733e-165</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.380088</v>
-      </c>
-      <c r="C212" t="n">
-        <v>5.497728512183703e-166</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382924</v>
-      </c>
-      <c r="C213" t="n">
-        <v>2.740344843763378e-166</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.383343</v>
-      </c>
-      <c r="C214" t="n">
-        <v>3.74943747049153e-166</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383858999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>2.240253322803974e-166</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.385955</v>
-      </c>
-      <c r="C216" t="n">
-        <v>1.547381848206873e-166</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.389858</v>
-      </c>
-      <c r="C217" t="n">
-        <v>9.741881848075969e-167</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.393084</v>
-      </c>
-      <c r="C218" t="n">
-        <v>7.753039907534744e-167</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.403415</v>
-      </c>
-      <c r="C219" t="n">
-        <v>5.021004964251933e-167</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.414078</v>
-      </c>
-      <c r="C220" t="n">
-        <v>4.119272867355239e-167</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.424364</v>
-      </c>
-      <c r="C221" t="n">
-        <v>2.086162534958832e-167</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.435405</v>
-      </c>
-      <c r="C222" t="n">
-        <v>7.8242447455113e-168</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.439261</v>
-      </c>
-      <c r="C223" t="n">
-        <v>5.182415778739509e-168</v>
+        <v>3.374223655675383e-160</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.150000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.150000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>3.859677219406028e-130</v>
+        <v>2.019671132494105e-130</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>1.325602225183847e-130</v>
+        <v>8.223021474915993e-131</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>5.327180677715606e-131</v>
+        <v>3.801311726915028e-131</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>3.992781634015473e-131</v>
+        <v>3.298282948177251e-131</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>2.831706026375379e-131</v>
+        <v>2.543705799353813e-131</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>3.040604041349941e-131</v>
+        <v>2.788713996365793e-131</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>2.684859733690962e-131</v>
+        <v>2.605411086906456e-131</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>5.174909134715404e-131</v>
+        <v>5.05239541343254e-131</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>5.960904289411485e-131</v>
+        <v>5.836086699170604e-131</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>3.435357974868431e-131</v>
+        <v>3.409768558372514e-131</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>1.627772328828347e-131</v>
+        <v>1.606493939887868e-131</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>4.938241686001992e-132</v>
+        <v>4.890367105616532e-132</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>3.321449705192727e-132</v>
+        <v>3.223644124803844e-132</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>3.707663152813506e-132</v>
+        <v>3.661015291371084e-132</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>1.444745831357147e-132</v>
+        <v>1.37900195822151e-132</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>8.52943846853638e-133</v>
+        <v>8.150642243852401e-133</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>3.592614914535661e-133</v>
+        <v>3.107856916856887e-133</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>1.000623707069641e-133</v>
+        <v>8.09224048847706e-134</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>6.713018905252427e-134</v>
+        <v>5.392605330991935e-134</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>5.533960057069568e-134</v>
+        <v>4.203688747622452e-134</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>4.903474636860475e-134</v>
+        <v>4.168010448772329e-134</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>4.406392361663726e-134</v>
+        <v>4.180078846656945e-134</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>3.224390341900553e-134</v>
+        <v>2.714824241941933e-134</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>4.577100035922429e-134</v>
+        <v>3.970139619770441e-134</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>5.103655469036383e-134</v>
+        <v>4.520586850734724e-134</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>6.313641047394322e-134</v>
+        <v>6.254973694206853e-134</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>8.093793254853264e-134</v>
+        <v>8.045444410654868e-134</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>4.173196541516463e-134</v>
+        <v>4.119869269465807e-134</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>1.160908080421908e-134</v>
+        <v>1.153865852112421e-134</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>3.170912239612958e-135</v>
+        <v>3.059542890995919e-135</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>8.178270273876948e-136</v>
+        <v>7.826738389349549e-136</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>4.409753103514366e-136</v>
+        <v>4.196205209404305e-136</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>1.55056882217792e-136</v>
+        <v>1.594107774401164e-136</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>7.640820817028094e-137</v>
+        <v>5.862178703061753e-137</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>3.247663949974215e-137</v>
+        <v>3.186590551057785e-137</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>2.855239479464115e-137</v>
+        <v>2.763169924301341e-137</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>3.149882822569405e-137</v>
+        <v>3.097423325777821e-137</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>5.613556576999321e-138</v>
+        <v>5.517198124620349e-138</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>1.297452721161806e-138</v>
+        <v>1.189527720032377e-138</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>6.144047174169122e-139</v>
+        <v>5.386112031396698e-139</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>1.467408013169596e-139</v>
+        <v>1.364135198928549e-139</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>4.807384181085489e-140</v>
+        <v>4.394880087563057e-140</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>2.389133773068653e-140</v>
+        <v>2.343608753218577e-140</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>3.835079915551489e-140</v>
+        <v>3.781016900271562e-140</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>3.381168757286064e-140</v>
+        <v>3.333949585439503e-140</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>1.902389328435798e-140</v>
+        <v>1.90217394630039e-140</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>1.402982719659012e-140</v>
+        <v>1.397040601275912e-140</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>8.795275937779634e-141</v>
+        <v>8.676438274660514e-141</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>4.091589156163428e-141</v>
+        <v>4.026697763789661e-141</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>1.620369192175115e-141</v>
+        <v>1.629027060790389e-141</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>7.70725756039683e-142</v>
+        <v>7.635855558110787e-142</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>6.207265267842635e-142</v>
+        <v>6.276158359817738e-142</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>5.051577957752244e-142</v>
+        <v>4.97030526821101e-142</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>3.600512890952139e-142</v>
+        <v>3.45266910606566e-142</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>1.88869301663176e-142</v>
+        <v>1.817693095032086e-142</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>5.849334043149855e-143</v>
+        <v>5.764504584013284e-143</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>2.677831748892675e-143</v>
+        <v>2.640234814436477e-143</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>9.156292911953971e-144</v>
+        <v>9.159042082889813e-144</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>7.116765418737875e-144</v>
+        <v>7.153832987840009e-144</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>4.810391101344502e-144</v>
+        <v>4.830316691046328e-144</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>3.317050107780418e-144</v>
+        <v>3.325568015733813e-144</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>2.739861475198856e-144</v>
+        <v>2.752525606596895e-144</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>2.270568528794759e-144</v>
+        <v>2.274422885057462e-144</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>1.81741542836759e-144</v>
+        <v>1.819181808536631e-144</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>1.164213698979631e-144</v>
+        <v>1.170383896243345e-144</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>9.294038562919874e-145</v>
+        <v>9.32282398993225e-145</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>6.768269119125918e-145</v>
+        <v>6.843928230988988e-145</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>4.943589247322289e-145</v>
+        <v>4.955892919613085e-145</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>4.083728407098277e-145</v>
+        <v>4.111638058505129e-145</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>3.249945240905349e-145</v>
+        <v>3.264948597148557e-145</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>2.826886998380593e-145</v>
+        <v>2.83199538818536e-145</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>2.232130906489883e-145</v>
+        <v>2.254360770417116e-145</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>1.934933028382121e-145</v>
+        <v>1.942327609472825e-145</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>8.173964734385405e-146</v>
+        <v>8.24359713989072e-146</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>5.312365521569739e-146</v>
+        <v>5.314089171760018e-146</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>3.298538094704399e-146</v>
+        <v>3.309300798105685e-146</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>1.332151714152235e-146</v>
+        <v>1.340402159571526e-146</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>8.537827812410367e-147</v>
+        <v>8.580913969061665e-147</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>5.362455051197014e-147</v>
+        <v>5.374515138969636e-147</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>4.210485999080964e-147</v>
+        <v>4.228944918969517e-147</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>4.175914873815203e-147</v>
+        <v>4.186472759667375e-147</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>3.650338675132262e-147</v>
+        <v>3.662196183221368e-147</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>2.53849566388021e-147</v>
+        <v>2.544111644096282e-147</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>2.102858997481422e-147</v>
+        <v>2.105731161661986e-147</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>1.828610794916576e-147</v>
+        <v>1.829943070964338e-147</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>1.697155530938705e-147</v>
+        <v>1.703824791969497e-147</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>1.51213367983145e-147</v>
+        <v>1.512283042076727e-147</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>1.320392816960956e-147</v>
+        <v>1.319659316073314e-147</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>1.075167492567192e-147</v>
+        <v>1.075592231496816e-147</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>8.713820937065465e-148</v>
+        <v>8.741158184712343e-148</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>5.874644389243519e-148</v>
+        <v>5.870616037281957e-148</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>3.686192480630403e-148</v>
+        <v>3.705298903738956e-148</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>1.187328716993159e-148</v>
+        <v>1.194846833267341e-148</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>7.189148137566057e-149</v>
+        <v>7.26467675248918e-149</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>4.292808829264025e-149</v>
+        <v>4.315084006703743e-149</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>1.751966513478189e-149</v>
+        <v>1.762045817326093e-149</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>1.127277430401425e-149</v>
+        <v>1.129022148869267e-149</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>8.669863935921287e-150</v>
+        <v>8.672777817889821e-150</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>7.232891303653056e-150</v>
+        <v>7.190793952615754e-150</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>5.983824429472323e-150</v>
+        <v>5.943836725078274e-150</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>5.558676594607979e-150</v>
+        <v>5.562692693389766e-150</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>5.455890442880116e-150</v>
+        <v>5.416434271641137e-150</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>5.282516749658569e-150</v>
+        <v>5.289778173962766e-150</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>4.47851254870155e-150</v>
+        <v>4.519640293768175e-150</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>3.824254310008065e-150</v>
+        <v>3.807159805985588e-150</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>3.307840352219542e-150</v>
+        <v>3.30192339375865e-150</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>2.738379052811181e-150</v>
+        <v>2.724073236042084e-150</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>2.547282163637079e-150</v>
+        <v>2.525128256249222e-150</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>2.460074097735753e-150</v>
+        <v>2.456886484087132e-150</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>1.995831132004635e-150</v>
+        <v>1.966314091935317e-150</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>1.266326872121206e-150</v>
+        <v>1.255215308221832e-150</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>8.01831190199223e-151</v>
+        <v>8.05302350620299e-151</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>5.540664704837654e-151</v>
+        <v>5.540971274209917e-151</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>4.907435736498713e-151</v>
+        <v>4.973392090106408e-151</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>4.74493896118381e-151</v>
+        <v>4.727661995870415e-151</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>5.806566454878064e-151</v>
+        <v>5.780023942379222e-151</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>5.83240886361616e-151</v>
+        <v>5.8375323481134e-151</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>5.104683317439937e-151</v>
+        <v>5.0909026264273e-151</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>4.170957606538558e-151</v>
+        <v>4.165520556142321e-151</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>3.759251426301214e-151</v>
+        <v>3.755932395828343e-151</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>3.532662027506836e-151</v>
+        <v>3.545867233826065e-151</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>2.288241169743342e-151</v>
+        <v>2.300994369548078e-151</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>1.80434434010686e-151</v>
+        <v>1.816111704484149e-151</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>5.640891590508172e-152</v>
+        <v>5.65161102845125e-152</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>9.996626994695154e-153</v>
+        <v>1.008076065389476e-152</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>2.431266364619717e-153</v>
+        <v>2.432507626081358e-153</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>7.383447054833944e-154</v>
+        <v>7.443874538542178e-154</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>5.564291613947856e-154</v>
+        <v>5.565496908247527e-154</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>4.86972272637278e-154</v>
+        <v>4.859138561811907e-154</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>4.612073181980715e-154</v>
+        <v>4.589190081688637e-154</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>3.209480211310054e-154</v>
+        <v>3.262285060036945e-154</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>2.40263928121236e-154</v>
+        <v>2.406185643304751e-154</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>1.652585326389471e-154</v>
+        <v>1.65458457722338e-154</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>1.063700190105993e-154</v>
+        <v>1.062439900370545e-154</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>6.897840211285065e-155</v>
+        <v>6.87009455076004e-155</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>4.173905455055676e-155</v>
+        <v>4.234493980012354e-155</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>2.747235695713492e-155</v>
+        <v>2.724066348172589e-155</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>2.294781719178527e-155</v>
+        <v>2.249548273900744e-155</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>1.60864161366314e-155</v>
+        <v>1.478964600903532e-155</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>1.406638199756872e-155</v>
+        <v>1.397538163140991e-155</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>1.137593675468213e-155</v>
+        <v>1.141146239533351e-155</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>8.565023199619489e-156</v>
+        <v>8.25724747540936e-156</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>7.232292645398577e-156</v>
+        <v>7.161536489177368e-156</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>6.014267134518993e-156</v>
+        <v>5.98673926640057e-156</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>4.79727677262178e-156</v>
+        <v>4.776644466898707e-156</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>4.008457215955868e-156</v>
+        <v>3.999567302055686e-156</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>3.14156603490991e-156</v>
+        <v>3.146904669090812e-156</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>2.271238427406919e-156</v>
+        <v>2.265084544023725e-156</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>1.459848841727796e-156</v>
+        <v>1.464474354248437e-156</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>1.416594265252666e-156</v>
+        <v>1.42252768423832e-156</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>9.69144096582554e-157</v>
+        <v>9.75857423855743e-157</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>8.480802556038638e-157</v>
+        <v>8.502994492527159e-157</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>8.114126799705524e-157</v>
+        <v>8.146406214566998e-157</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>8.144704621130299e-157</v>
+        <v>8.189086609201573e-157</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>6.484441673001733e-157</v>
+        <v>6.499529236259187e-157</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>5.153233983503314e-157</v>
+        <v>5.180657564055896e-157</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>4.140377270881699e-157</v>
+        <v>4.157537228175585e-157</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>3.387600991481448e-157</v>
+        <v>3.402452690802046e-157</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>2.827828608968259e-157</v>
+        <v>2.829940498664208e-157</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>2.284863015069133e-157</v>
+        <v>2.300940051348212e-157</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>1.875817968852959e-157</v>
+        <v>1.884271936182076e-157</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>1.714820436754589e-157</v>
+        <v>1.725612906831491e-157</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>6.38188396031024e-158</v>
+        <v>6.41835580575966e-158</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>1.874153925221959e-158</v>
+        <v>1.929847060107382e-158</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>9.435242983630756e-159</v>
+        <v>9.639348767680834e-159</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>1.323843567955543e-158</v>
+        <v>1.346520379290498e-158</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>7.93219709915285e-159</v>
+        <v>8.186626462854138e-159</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>5.546701511204579e-159</v>
+        <v>5.761369108729557e-159</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>3.621402922102719e-159</v>
+        <v>3.749118584436408e-159</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>2.970984765712794e-159</v>
+        <v>2.719321311709805e-159</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>2.229211334107761e-159</v>
+        <v>2.246532637815277e-159</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>2.036131061156107e-159</v>
+        <v>2.022656334656614e-159</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>1.156216018730993e-159</v>
+        <v>1.167671805279114e-159</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>4.890308510597108e-160</v>
+        <v>4.971819628406699e-160</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>3.374223655675383e-160</v>
+        <v>3.442818680507953e-160</v>
       </c>
     </row>
   </sheetData>
